--- a/BackTest/2019-10-30 BackTest ELF.xlsx
+++ b/BackTest/2019-10-30 BackTest ELF.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:M134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>99.09999999999999</v>
+        <v>103</v>
       </c>
       <c r="C2" t="n">
-        <v>99.09999999999999</v>
+        <v>103</v>
       </c>
       <c r="D2" t="n">
-        <v>99.09999999999999</v>
+        <v>103</v>
       </c>
       <c r="E2" t="n">
-        <v>99.09999999999999</v>
+        <v>103</v>
       </c>
       <c r="F2" t="n">
-        <v>473.037</v>
+        <v>359.0647</v>
       </c>
       <c r="G2" t="n">
-        <v>100.08</v>
+        <v>-72495.9515407767</v>
       </c>
       <c r="H2" t="n">
-        <v>101.47</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>99.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="C3" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D3" t="n">
-        <v>99.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="E3" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F3" t="n">
-        <v>13750</v>
+        <v>581.907</v>
       </c>
       <c r="G3" t="n">
-        <v>99.94666666666666</v>
+        <v>-73077.85854077671</v>
       </c>
       <c r="H3" t="n">
-        <v>101.4033333333334</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>99.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="C4" t="n">
-        <v>99.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="D4" t="n">
-        <v>99.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="E4" t="n">
-        <v>99.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="F4" t="n">
-        <v>475.8118</v>
+        <v>847.4226</v>
       </c>
       <c r="G4" t="n">
-        <v>99.81999999999998</v>
+        <v>-73077.85854077671</v>
       </c>
       <c r="H4" t="n">
-        <v>101.3383333333334</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C5" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D5" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E5" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F5" t="n">
-        <v>4044.9999</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>99.68666666666665</v>
+        <v>-73076.85854077671</v>
       </c>
       <c r="H5" t="n">
-        <v>101.2716666666667</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>99.8</v>
+        <v>102</v>
       </c>
       <c r="C6" t="n">
-        <v>99.8</v>
+        <v>102</v>
       </c>
       <c r="D6" t="n">
-        <v>99.8</v>
+        <v>102</v>
       </c>
       <c r="E6" t="n">
-        <v>99.8</v>
+        <v>102</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>1236.897</v>
       </c>
       <c r="G6" t="n">
-        <v>99.60666666666664</v>
+        <v>-74313.75554077671</v>
       </c>
       <c r="H6" t="n">
-        <v>101.2183333333333</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C7" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D7" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E7" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F7" t="n">
-        <v>4559.9112</v>
+        <v>618.4509</v>
       </c>
       <c r="G7" t="n">
-        <v>99.53999999999998</v>
+        <v>-74313.75554077671</v>
       </c>
       <c r="H7" t="n">
-        <v>101.1516666666667</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C8" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D8" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E8" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F8" t="n">
-        <v>29.4117</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>99.47333333333331</v>
+        <v>-74312.75554077671</v>
       </c>
       <c r="H8" t="n">
-        <v>101.085</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C9" t="n">
-        <v>98.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="D9" t="n">
-        <v>99.8</v>
+        <v>101</v>
       </c>
       <c r="E9" t="n">
-        <v>98.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="F9" t="n">
-        <v>1176.7347</v>
+        <v>348.5743</v>
       </c>
       <c r="G9" t="n">
-        <v>99.39999999999999</v>
+        <v>-74661.3298407767</v>
       </c>
       <c r="H9" t="n">
-        <v>101.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>98.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="C10" t="n">
-        <v>98.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>98.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="E10" t="n">
-        <v>98.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0001</v>
+        <v>70093.6724</v>
       </c>
       <c r="G10" t="n">
-        <v>99.32666666666665</v>
+        <v>-144755.0022407767</v>
       </c>
       <c r="H10" t="n">
-        <v>100.9483333333333</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>98.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="C11" t="n">
-        <v>98.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="D11" t="n">
-        <v>98.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="E11" t="n">
-        <v>98.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="F11" t="n">
-        <v>99</v>
+        <v>3710.3539</v>
       </c>
       <c r="G11" t="n">
-        <v>99.25333333333333</v>
+        <v>-141044.6483407767</v>
       </c>
       <c r="H11" t="n">
-        <v>100.88</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>98.8</v>
+        <v>101</v>
       </c>
       <c r="C12" t="n">
-        <v>98.8</v>
+        <v>101</v>
       </c>
       <c r="D12" t="n">
-        <v>98.8</v>
+        <v>101</v>
       </c>
       <c r="E12" t="n">
-        <v>98.8</v>
+        <v>101</v>
       </c>
       <c r="F12" t="n">
-        <v>4400</v>
+        <v>4574.9228</v>
       </c>
       <c r="G12" t="n">
-        <v>99.18666666666667</v>
+        <v>-141044.6483407767</v>
       </c>
       <c r="H12" t="n">
-        <v>100.8266666666667</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>98.59999999999999</v>
+        <v>101</v>
       </c>
       <c r="C13" t="n">
-        <v>98.59999999999999</v>
+        <v>101</v>
       </c>
       <c r="D13" t="n">
-        <v>98.59999999999999</v>
+        <v>101</v>
       </c>
       <c r="E13" t="n">
-        <v>98.59999999999999</v>
+        <v>101</v>
       </c>
       <c r="F13" t="n">
-        <v>2000</v>
+        <v>2590.158</v>
       </c>
       <c r="G13" t="n">
-        <v>99.14</v>
+        <v>-141044.6483407767</v>
       </c>
       <c r="H13" t="n">
-        <v>100.7533333333333</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>98.59999999999999</v>
+        <v>101</v>
       </c>
       <c r="C14" t="n">
-        <v>98.59999999999999</v>
+        <v>101</v>
       </c>
       <c r="D14" t="n">
-        <v>98.59999999999999</v>
+        <v>101</v>
       </c>
       <c r="E14" t="n">
-        <v>98.59999999999999</v>
+        <v>101</v>
       </c>
       <c r="F14" t="n">
-        <v>386.9239</v>
+        <v>9968.531499999999</v>
       </c>
       <c r="G14" t="n">
-        <v>99.05333333333331</v>
+        <v>-141044.6483407767</v>
       </c>
       <c r="H14" t="n">
-        <v>100.68</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>98.59999999999999</v>
+        <v>102</v>
       </c>
       <c r="C15" t="n">
-        <v>98.5</v>
+        <v>102</v>
       </c>
       <c r="D15" t="n">
-        <v>98.59999999999999</v>
+        <v>102</v>
       </c>
       <c r="E15" t="n">
-        <v>98.5</v>
+        <v>102</v>
       </c>
       <c r="F15" t="n">
-        <v>3150</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>98.96666666666665</v>
+        <v>-141043.6483407767</v>
       </c>
       <c r="H15" t="n">
-        <v>100.6216666666667</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="C16" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="D16" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="E16" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="F16" t="n">
-        <v>10.957</v>
+        <v>295.4554</v>
       </c>
       <c r="G16" t="n">
-        <v>98.91333333333333</v>
+        <v>-141339.1037407767</v>
       </c>
       <c r="H16" t="n">
-        <v>100.5466666666667</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,40 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="C17" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="D17" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="E17" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="F17" t="n">
-        <v>1490.4263</v>
+        <v>1034.5956</v>
       </c>
       <c r="G17" t="n">
-        <v>98.87333333333332</v>
+        <v>-141339.1037407767</v>
       </c>
       <c r="H17" t="n">
-        <v>100.4883333333334</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="L17" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1050,42 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="C18" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="D18" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="E18" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="F18" t="n">
-        <v>1341.3837</v>
+        <v>8848.35</v>
       </c>
       <c r="G18" t="n">
-        <v>98.83999999999999</v>
+        <v>-141339.1037407767</v>
       </c>
       <c r="H18" t="n">
-        <v>100.4466666666667</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1094,42 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="C19" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="D19" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="E19" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="F19" t="n">
-        <v>62.5728</v>
+        <v>6540</v>
       </c>
       <c r="G19" t="n">
-        <v>98.8</v>
+        <v>-141339.1037407767</v>
       </c>
       <c r="H19" t="n">
-        <v>100.405</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1138,40 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="C20" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="D20" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="E20" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="F20" t="n">
-        <v>541.0495</v>
+        <v>2102.3217</v>
       </c>
       <c r="G20" t="n">
-        <v>98.76666666666667</v>
+        <v>-141339.1037407767</v>
       </c>
       <c r="H20" t="n">
-        <v>100.3466666666667</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="L20" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1180,44 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>98.5</v>
+        <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>98.5</v>
+        <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>98.5</v>
+        <v>100</v>
       </c>
       <c r="E21" t="n">
-        <v>98.5</v>
+        <v>100</v>
       </c>
       <c r="F21" t="n">
-        <v>9186.981</v>
+        <v>4100</v>
       </c>
       <c r="G21" t="n">
-        <v>98.68000000000001</v>
+        <v>-145439.1037407767</v>
       </c>
       <c r="H21" t="n">
-        <v>100.2883333333334</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="L21" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1226,44 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="D22" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="E22" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="F22" t="n">
-        <v>4300</v>
+        <v>445.5313</v>
       </c>
       <c r="G22" t="n">
-        <v>98.63333333333334</v>
+        <v>-145439.1037407767</v>
       </c>
       <c r="H22" t="n">
-        <v>100.26</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="L22" t="n">
-        <v>98.5</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1272,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>98.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>98.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D23" t="n">
-        <v>98.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E23" t="n">
-        <v>98.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="F23" t="n">
-        <v>150.8737</v>
+        <v>2494.5685</v>
       </c>
       <c r="G23" t="n">
-        <v>98.62666666666668</v>
+        <v>-145439.1037407767</v>
       </c>
       <c r="H23" t="n">
-        <v>100.2416666666667</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1310,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="D24" t="n">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="E24" t="n">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="F24" t="n">
-        <v>1000</v>
+        <v>4705.8045</v>
       </c>
       <c r="G24" t="n">
-        <v>98.64666666666668</v>
+        <v>-145439.1037407767</v>
       </c>
       <c r="H24" t="n">
-        <v>100.195</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1348,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>98.8</v>
+        <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>98.8</v>
+        <v>100</v>
       </c>
       <c r="D25" t="n">
-        <v>98.8</v>
+        <v>100</v>
       </c>
       <c r="E25" t="n">
-        <v>98.8</v>
+        <v>100</v>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>23364.9751</v>
       </c>
       <c r="G25" t="n">
-        <v>98.64</v>
+        <v>-145439.1037407767</v>
       </c>
       <c r="H25" t="n">
-        <v>100.1583333333333</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1386,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>98.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="C26" t="n">
-        <v>98.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="D26" t="n">
-        <v>98.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="E26" t="n">
-        <v>98.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="F26" t="n">
-        <v>1000</v>
+        <v>2341.6973</v>
       </c>
       <c r="G26" t="n">
-        <v>98.64</v>
+        <v>-147780.8010407767</v>
       </c>
       <c r="H26" t="n">
-        <v>100.1066666666667</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1424,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>98.7</v>
+        <v>99.7</v>
       </c>
       <c r="C27" t="n">
-        <v>98.7</v>
+        <v>99.3</v>
       </c>
       <c r="D27" t="n">
-        <v>98.7</v>
+        <v>99.7</v>
       </c>
       <c r="E27" t="n">
-        <v>98.7</v>
+        <v>99.3</v>
       </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>599.9131</v>
       </c>
       <c r="G27" t="n">
-        <v>98.63333333333334</v>
+        <v>-148380.7141407767</v>
       </c>
       <c r="H27" t="n">
-        <v>100.0516666666667</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1462,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>98.7</v>
+        <v>99.3</v>
       </c>
       <c r="C28" t="n">
-        <v>98.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>98.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>98.7</v>
+        <v>99.2</v>
       </c>
       <c r="F28" t="n">
-        <v>1016.2816</v>
+        <v>2587.6584</v>
       </c>
       <c r="G28" t="n">
-        <v>98.64000000000001</v>
+        <v>-145793.0557407767</v>
       </c>
       <c r="H28" t="n">
-        <v>99.99666666666667</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1500,36 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>99.2</v>
+        <v>99.8</v>
       </c>
       <c r="C29" t="n">
-        <v>99.2</v>
+        <v>99.8</v>
       </c>
       <c r="D29" t="n">
-        <v>99.2</v>
+        <v>99.8</v>
       </c>
       <c r="E29" t="n">
-        <v>99.2</v>
+        <v>99.8</v>
       </c>
       <c r="F29" t="n">
-        <v>411.7552</v>
+        <v>1002.004</v>
       </c>
       <c r="G29" t="n">
-        <v>98.68000000000002</v>
+        <v>-146795.0597407767</v>
       </c>
       <c r="H29" t="n">
-        <v>99.96666666666667</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1538,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>98.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="C30" t="n">
-        <v>98.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="D30" t="n">
-        <v>98.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="E30" t="n">
-        <v>98.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="F30" t="n">
-        <v>3119.5017</v>
+        <v>956.6968000000001</v>
       </c>
       <c r="G30" t="n">
-        <v>98.70666666666669</v>
+        <v>-147751.7565407767</v>
       </c>
       <c r="H30" t="n">
-        <v>99.91499999999999</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1576,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>944.9198</v>
+        <v>473.037</v>
       </c>
       <c r="G31" t="n">
-        <v>98.76666666666669</v>
+        <v>-148224.7935407767</v>
       </c>
       <c r="H31" t="n">
-        <v>99.87166666666666</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1614,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>99.40000000000001</v>
+        <v>99</v>
       </c>
       <c r="D32" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>99.40000000000001</v>
+        <v>99</v>
       </c>
       <c r="F32" t="n">
-        <v>19.1156</v>
+        <v>13750</v>
       </c>
       <c r="G32" t="n">
-        <v>98.8266666666667</v>
+        <v>-161974.7935407767</v>
       </c>
       <c r="H32" t="n">
-        <v>99.82833333333332</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1652,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>500.3186</v>
+        <v>475.8118</v>
       </c>
       <c r="G33" t="n">
-        <v>98.87333333333338</v>
+        <v>-161498.9817407767</v>
       </c>
       <c r="H33" t="n">
-        <v>99.76499999999997</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1690,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="C34" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="D34" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="E34" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="F34" t="n">
-        <v>485.7831</v>
+        <v>4044.9999</v>
       </c>
       <c r="G34" t="n">
-        <v>98.91333333333337</v>
+        <v>-165543.9816407767</v>
       </c>
       <c r="H34" t="n">
-        <v>99.73333333333332</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1728,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="C35" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="D35" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="E35" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="F35" t="n">
-        <v>966.7767</v>
+        <v>10</v>
       </c>
       <c r="G35" t="n">
-        <v>98.98000000000003</v>
+        <v>-165533.9816407767</v>
       </c>
       <c r="H35" t="n">
-        <v>99.70833333333331</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1766,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="C36" t="n">
         <v>99</v>
       </c>
       <c r="D36" t="n">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="E36" t="n">
         <v>99</v>
       </c>
       <c r="F36" t="n">
-        <v>1312.4957</v>
+        <v>4559.9112</v>
       </c>
       <c r="G36" t="n">
-        <v>99.01333333333336</v>
+        <v>-170093.8928407767</v>
       </c>
       <c r="H36" t="n">
-        <v>99.64166666666665</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1804,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>99.3</v>
+        <v>99</v>
       </c>
       <c r="C37" t="n">
-        <v>99.3</v>
+        <v>99</v>
       </c>
       <c r="D37" t="n">
-        <v>99.3</v>
+        <v>99</v>
       </c>
       <c r="E37" t="n">
-        <v>99.3</v>
+        <v>99</v>
       </c>
       <c r="F37" t="n">
-        <v>644.1562</v>
+        <v>29.4117</v>
       </c>
       <c r="G37" t="n">
-        <v>99.08000000000003</v>
+        <v>-170093.8928407767</v>
       </c>
       <c r="H37" t="n">
-        <v>99.59666666666665</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1842,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>99.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="C38" t="n">
-        <v>99.90000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="E38" t="n">
-        <v>99.90000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>1211</v>
+        <v>1176.7347</v>
       </c>
       <c r="G38" t="n">
-        <v>99.1466666666667</v>
+        <v>-171270.6275407767</v>
       </c>
       <c r="H38" t="n">
-        <v>99.56166666666665</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1880,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>100</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>100</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>100</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>100</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>3836.5839</v>
+        <v>0.0001</v>
       </c>
       <c r="G39" t="n">
-        <v>99.20000000000003</v>
+        <v>-171270.6275407767</v>
       </c>
       <c r="H39" t="n">
-        <v>99.51166666666664</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>203.9176</v>
+        <v>99</v>
       </c>
       <c r="G40" t="n">
-        <v>99.22000000000003</v>
+        <v>-171270.6275407767</v>
       </c>
       <c r="H40" t="n">
-        <v>99.47999999999999</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1956,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>100</v>
+        <v>98.8</v>
       </c>
       <c r="C41" t="n">
-        <v>101</v>
+        <v>98.8</v>
       </c>
       <c r="D41" t="n">
-        <v>101</v>
+        <v>98.8</v>
       </c>
       <c r="E41" t="n">
-        <v>100</v>
+        <v>98.8</v>
       </c>
       <c r="F41" t="n">
-        <v>449.3348</v>
+        <v>4400</v>
       </c>
       <c r="G41" t="n">
-        <v>99.36000000000003</v>
+        <v>-175670.6275407767</v>
       </c>
       <c r="H41" t="n">
-        <v>99.49666666666666</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1994,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>101</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>101</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>101</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>101</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>15750</v>
+        <v>2000</v>
       </c>
       <c r="G42" t="n">
-        <v>99.51333333333335</v>
+        <v>-177670.6275407767</v>
       </c>
       <c r="H42" t="n">
-        <v>99.49666666666666</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2032,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>101</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>101</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>101</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>101</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>1414.997</v>
+        <v>386.9239</v>
       </c>
       <c r="G43" t="n">
-        <v>99.66666666666669</v>
+        <v>-177670.6275407767</v>
       </c>
       <c r="H43" t="n">
-        <v>99.49666666666666</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2070,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>100</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>99.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="D44" t="n">
-        <v>100</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>99.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="F44" t="n">
-        <v>560.8896</v>
+        <v>3150</v>
       </c>
       <c r="G44" t="n">
-        <v>99.69333333333334</v>
+        <v>-180820.6275407767</v>
       </c>
       <c r="H44" t="n">
-        <v>99.47333333333333</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2108,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>101</v>
+        <v>98.5</v>
       </c>
       <c r="C45" t="n">
-        <v>101</v>
+        <v>98.5</v>
       </c>
       <c r="D45" t="n">
-        <v>101</v>
+        <v>98.5</v>
       </c>
       <c r="E45" t="n">
-        <v>101</v>
+        <v>98.5</v>
       </c>
       <c r="F45" t="n">
-        <v>1</v>
+        <v>10.957</v>
       </c>
       <c r="G45" t="n">
-        <v>99.83333333333333</v>
+        <v>-180820.6275407767</v>
       </c>
       <c r="H45" t="n">
-        <v>99.47333333333333</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2146,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>101</v>
+        <v>98.5</v>
       </c>
       <c r="C46" t="n">
-        <v>101</v>
+        <v>98.5</v>
       </c>
       <c r="D46" t="n">
-        <v>101</v>
+        <v>98.5</v>
       </c>
       <c r="E46" t="n">
-        <v>101</v>
+        <v>98.5</v>
       </c>
       <c r="F46" t="n">
-        <v>353.2277</v>
+        <v>1490.4263</v>
       </c>
       <c r="G46" t="n">
-        <v>99.94</v>
+        <v>-180820.6275407767</v>
       </c>
       <c r="H46" t="n">
-        <v>99.45666666666666</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2184,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>101</v>
+        <v>98.5</v>
       </c>
       <c r="C47" t="n">
-        <v>101</v>
+        <v>98.5</v>
       </c>
       <c r="D47" t="n">
-        <v>101</v>
+        <v>98.5</v>
       </c>
       <c r="E47" t="n">
-        <v>101</v>
+        <v>98.5</v>
       </c>
       <c r="F47" t="n">
-        <v>10</v>
+        <v>1341.3837</v>
       </c>
       <c r="G47" t="n">
-        <v>100.0466666666667</v>
+        <v>-180820.6275407767</v>
       </c>
       <c r="H47" t="n">
-        <v>99.45666666666666</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2222,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="C48" t="n">
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="D48" t="n">
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="E48" t="n">
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="F48" t="n">
-        <v>964.066</v>
+        <v>62.5728</v>
       </c>
       <c r="G48" t="n">
-        <v>100.1</v>
+        <v>-180820.6275407767</v>
       </c>
       <c r="H48" t="n">
-        <v>99.44</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2260,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="C49" t="n">
-        <v>99.90000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="D49" t="n">
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="E49" t="n">
-        <v>99.90000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="F49" t="n">
-        <v>2280.1589</v>
+        <v>541.0495</v>
       </c>
       <c r="G49" t="n">
-        <v>100.1533333333333</v>
+        <v>-180820.6275407767</v>
       </c>
       <c r="H49" t="n">
-        <v>99.42166666666665</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2298,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>99.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="C50" t="n">
-        <v>99.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="D50" t="n">
-        <v>99.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="E50" t="n">
-        <v>99.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="F50" t="n">
-        <v>395.224</v>
+        <v>9186.981</v>
       </c>
       <c r="G50" t="n">
-        <v>100.16</v>
+        <v>-180820.6275407767</v>
       </c>
       <c r="H50" t="n">
-        <v>99.39833333333333</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2336,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>99.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="C51" t="n">
-        <v>99.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="D51" t="n">
-        <v>99.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="E51" t="n">
-        <v>99.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="F51" t="n">
-        <v>8186.2892</v>
+        <v>4300</v>
       </c>
       <c r="G51" t="n">
-        <v>100.1666666666667</v>
+        <v>-185120.6275407767</v>
       </c>
       <c r="H51" t="n">
-        <v>99.36666666666666</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2374,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C52" t="n">
         <v>98.90000000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E52" t="n">
         <v>98.90000000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>490.0592</v>
+        <v>150.8737</v>
       </c>
       <c r="G52" t="n">
-        <v>100.14</v>
+        <v>-184969.7538407767</v>
       </c>
       <c r="H52" t="n">
-        <v>99.34833333333333</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2412,42 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>98.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="C53" t="n">
-        <v>98.3</v>
+        <v>99.2</v>
       </c>
       <c r="D53" t="n">
-        <v>98.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="E53" t="n">
-        <v>98.3</v>
+        <v>99.2</v>
       </c>
       <c r="F53" t="n">
-        <v>11349.1998</v>
+        <v>1000</v>
       </c>
       <c r="G53" t="n">
-        <v>100.0333333333333</v>
+        <v>-183969.7538407767</v>
       </c>
       <c r="H53" t="n">
-        <v>99.31999999999999</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>98.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2456,42 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>98.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="C54" t="n">
-        <v>98.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="D54" t="n">
-        <v>98.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="E54" t="n">
-        <v>98.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="F54" t="n">
-        <v>1423.192</v>
+        <v>100</v>
       </c>
       <c r="G54" t="n">
-        <v>99.92666666666666</v>
+        <v>-184069.7538407767</v>
       </c>
       <c r="H54" t="n">
-        <v>99.29333333333332</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="n">
-        <v>98.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2500,42 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>98.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>98.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>98.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>98.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>18184.4581</v>
+        <v>1000</v>
       </c>
       <c r="G55" t="n">
-        <v>99.87333333333332</v>
+        <v>-183069.7538407767</v>
       </c>
       <c r="H55" t="n">
-        <v>99.265</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="n">
-        <v>98.40000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2544,42 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>98.3</v>
+        <v>98.7</v>
       </c>
       <c r="C56" t="n">
-        <v>98.3</v>
+        <v>98.7</v>
       </c>
       <c r="D56" t="n">
-        <v>98.3</v>
+        <v>98.7</v>
       </c>
       <c r="E56" t="n">
-        <v>98.3</v>
+        <v>98.7</v>
       </c>
       <c r="F56" t="n">
-        <v>4566.6215</v>
+        <v>100</v>
       </c>
       <c r="G56" t="n">
-        <v>99.69333333333333</v>
+        <v>-183169.7538407767</v>
       </c>
       <c r="H56" t="n">
-        <v>99.23666666666666</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>98.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2588,42 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>98.2</v>
+        <v>98.7</v>
       </c>
       <c r="C57" t="n">
-        <v>98.2</v>
+        <v>98.7</v>
       </c>
       <c r="D57" t="n">
-        <v>98.2</v>
+        <v>98.7</v>
       </c>
       <c r="E57" t="n">
-        <v>98.2</v>
+        <v>98.7</v>
       </c>
       <c r="F57" t="n">
-        <v>2071.2779</v>
+        <v>1016.2816</v>
       </c>
       <c r="G57" t="n">
-        <v>99.50666666666666</v>
+        <v>-183169.7538407767</v>
       </c>
       <c r="H57" t="n">
-        <v>99.20999999999999</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>98.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2632,42 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>98.2</v>
+        <v>99.2</v>
       </c>
       <c r="C58" t="n">
-        <v>97.8</v>
+        <v>99.2</v>
       </c>
       <c r="D58" t="n">
-        <v>98.2</v>
+        <v>99.2</v>
       </c>
       <c r="E58" t="n">
-        <v>97.8</v>
+        <v>99.2</v>
       </c>
       <c r="F58" t="n">
-        <v>5569.6258</v>
+        <v>411.7552</v>
       </c>
       <c r="G58" t="n">
-        <v>99.29333333333332</v>
+        <v>-182757.9986407767</v>
       </c>
       <c r="H58" t="n">
-        <v>99.18499999999999</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>98.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2676,42 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>97.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>97.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>97.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>97.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>1147.1342</v>
+        <v>3119.5017</v>
       </c>
       <c r="G59" t="n">
-        <v>99.16666666666667</v>
+        <v>-185877.5003407767</v>
       </c>
       <c r="H59" t="n">
-        <v>99.14833333333333</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="n">
-        <v>97.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2720,42 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>100</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>106</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>147959.8166018868</v>
+        <v>944.9198</v>
       </c>
       <c r="G60" t="n">
-        <v>99.09999999999999</v>
+        <v>-184932.5805407767</v>
       </c>
       <c r="H60" t="n">
-        <v>99.15166666666666</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="n">
-        <v>97.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2764,40 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>104</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>104</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>104</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>104</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>463.9672</v>
+        <v>19.1156</v>
       </c>
       <c r="G61" t="n">
-        <v>99.3</v>
+        <v>-184932.5805407767</v>
       </c>
       <c r="H61" t="n">
-        <v>99.22999999999999</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2806,40 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>102</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>103</v>
+        <v>99.2</v>
       </c>
       <c r="D62" t="n">
-        <v>103</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E62" t="n">
-        <v>102</v>
+        <v>99.2</v>
       </c>
       <c r="F62" t="n">
-        <v>11704.1263</v>
+        <v>500.3186</v>
       </c>
       <c r="G62" t="n">
-        <v>99.43333333333334</v>
+        <v>-185432.8991407767</v>
       </c>
       <c r="H62" t="n">
-        <v>99.29499999999999</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>1</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2848,40 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>103</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>103</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>103</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>103</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>368.1988</v>
+        <v>485.7831</v>
       </c>
       <c r="G63" t="n">
-        <v>99.63333333333334</v>
+        <v>-185918.6822407767</v>
       </c>
       <c r="H63" t="n">
-        <v>99.36166666666665</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>1</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2890,40 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>103</v>
+        <v>99.5</v>
       </c>
       <c r="C64" t="n">
-        <v>103</v>
+        <v>99.5</v>
       </c>
       <c r="D64" t="n">
-        <v>103</v>
+        <v>99.5</v>
       </c>
       <c r="E64" t="n">
-        <v>103</v>
+        <v>99.5</v>
       </c>
       <c r="F64" t="n">
-        <v>5900</v>
+        <v>966.7767</v>
       </c>
       <c r="G64" t="n">
-        <v>99.83999999999999</v>
+        <v>-184951.9055407767</v>
       </c>
       <c r="H64" t="n">
-        <v>99.42666666666665</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2932,40 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>104</v>
+        <v>99.5</v>
       </c>
       <c r="C65" t="n">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D65" t="n">
-        <v>104</v>
+        <v>99.5</v>
       </c>
       <c r="E65" t="n">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F65" t="n">
-        <v>774.3441</v>
+        <v>1312.4957</v>
       </c>
       <c r="G65" t="n">
-        <v>100.0666666666667</v>
+        <v>-186264.4012407767</v>
       </c>
       <c r="H65" t="n">
-        <v>99.49333333333331</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2974,76 +2673,68 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>103</v>
+        <v>99.3</v>
       </c>
       <c r="C66" t="n">
-        <v>102</v>
+        <v>99.3</v>
       </c>
       <c r="D66" t="n">
-        <v>104</v>
+        <v>99.3</v>
       </c>
       <c r="E66" t="n">
-        <v>102</v>
+        <v>99.3</v>
       </c>
       <c r="F66" t="n">
-        <v>6670.8124</v>
+        <v>644.1562</v>
       </c>
       <c r="G66" t="n">
-        <v>100.26</v>
+        <v>-185620.2450407767</v>
       </c>
       <c r="H66" t="n">
-        <v>99.52999999999997</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>1</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>102</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>102</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>102</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E67" t="n">
-        <v>102</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F67" t="n">
-        <v>391.7612</v>
+        <v>1211</v>
       </c>
       <c r="G67" t="n">
-        <v>100.4666666666667</v>
+        <v>-184409.2450407767</v>
       </c>
       <c r="H67" t="n">
-        <v>99.57999999999997</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3052,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C68" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D68" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E68" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F68" t="n">
-        <v>11468.3706</v>
+        <v>3836.5839</v>
       </c>
       <c r="G68" t="n">
-        <v>100.6466666666667</v>
+        <v>-180572.6611407767</v>
       </c>
       <c r="H68" t="n">
-        <v>99.6133333333333</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3090,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>101</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>101</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>101</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>101</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>3718.8652</v>
+        <v>203.9176</v>
       </c>
       <c r="G69" t="n">
-        <v>100.82</v>
+        <v>-180776.5787407767</v>
       </c>
       <c r="H69" t="n">
-        <v>99.64833333333331</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3128,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="C70" t="n">
-        <v>99.8</v>
+        <v>101</v>
       </c>
       <c r="D70" t="n">
-        <v>99.8</v>
+        <v>101</v>
       </c>
       <c r="E70" t="n">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="F70" t="n">
-        <v>4219.3429</v>
+        <v>449.3348</v>
       </c>
       <c r="G70" t="n">
-        <v>100.92</v>
+        <v>-180327.2439407767</v>
       </c>
       <c r="H70" t="n">
-        <v>99.66333333333333</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3166,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>99.8</v>
+        <v>101</v>
       </c>
       <c r="C71" t="n">
-        <v>99.8</v>
+        <v>101</v>
       </c>
       <c r="D71" t="n">
-        <v>99.8</v>
+        <v>101</v>
       </c>
       <c r="E71" t="n">
-        <v>99.8</v>
+        <v>101</v>
       </c>
       <c r="F71" t="n">
-        <v>108.256</v>
+        <v>15750</v>
       </c>
       <c r="G71" t="n">
-        <v>101.02</v>
+        <v>-180327.2439407767</v>
       </c>
       <c r="H71" t="n">
-        <v>99.67833333333333</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3204,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>99.3</v>
+        <v>101</v>
       </c>
       <c r="C72" t="n">
-        <v>99.3</v>
+        <v>101</v>
       </c>
       <c r="D72" t="n">
-        <v>99.3</v>
+        <v>101</v>
       </c>
       <c r="E72" t="n">
-        <v>99.3</v>
+        <v>101</v>
       </c>
       <c r="F72" t="n">
-        <v>458.7407</v>
+        <v>1414.997</v>
       </c>
       <c r="G72" t="n">
-        <v>101.0933333333333</v>
+        <v>-180327.2439407767</v>
       </c>
       <c r="H72" t="n">
-        <v>99.68666666666667</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3242,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C73" t="n">
-        <v>99</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E73" t="n">
-        <v>99</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F73" t="n">
-        <v>309.9174</v>
+        <v>560.8896</v>
       </c>
       <c r="G73" t="n">
-        <v>101.1733333333333</v>
+        <v>-180888.1335407767</v>
       </c>
       <c r="H73" t="n">
-        <v>99.69333333333333</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3280,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>98.3</v>
+        <v>101</v>
       </c>
       <c r="C74" t="n">
-        <v>98.2</v>
+        <v>101</v>
       </c>
       <c r="D74" t="n">
-        <v>98.3</v>
+        <v>101</v>
       </c>
       <c r="E74" t="n">
-        <v>98.2</v>
+        <v>101</v>
       </c>
       <c r="F74" t="n">
-        <v>1297.4471</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>101.2066666666667</v>
+        <v>-180887.1335407767</v>
       </c>
       <c r="H74" t="n">
-        <v>99.68666666666665</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,36 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>98.3</v>
+        <v>101</v>
       </c>
       <c r="C75" t="n">
-        <v>98.3</v>
+        <v>101</v>
       </c>
       <c r="D75" t="n">
-        <v>98.3</v>
+        <v>101</v>
       </c>
       <c r="E75" t="n">
-        <v>98.3</v>
+        <v>101</v>
       </c>
       <c r="F75" t="n">
-        <v>190.5322</v>
+        <v>353.2277</v>
       </c>
       <c r="G75" t="n">
-        <v>101.0933333333333</v>
+        <v>-180887.1335407767</v>
       </c>
       <c r="H75" t="n">
-        <v>99.68333333333332</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3356,36 +3023,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>98.3</v>
+        <v>101</v>
       </c>
       <c r="C76" t="n">
-        <v>98.3</v>
+        <v>101</v>
       </c>
       <c r="D76" t="n">
-        <v>98.3</v>
+        <v>101</v>
       </c>
       <c r="E76" t="n">
-        <v>98.3</v>
+        <v>101</v>
       </c>
       <c r="F76" t="n">
-        <v>959.5974</v>
+        <v>10</v>
       </c>
       <c r="G76" t="n">
-        <v>100.7133333333333</v>
+        <v>-180887.1335407767</v>
       </c>
       <c r="H76" t="n">
-        <v>99.67999999999999</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3394,36 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="C77" t="n">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="D77" t="n">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="E77" t="n">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="F77" t="n">
-        <v>10</v>
+        <v>964.066</v>
       </c>
       <c r="G77" t="n">
-        <v>100.46</v>
+        <v>-181851.1995407767</v>
       </c>
       <c r="H77" t="n">
-        <v>99.69166666666665</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3432,36 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="C78" t="n">
-        <v>99.40000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="E78" t="n">
-        <v>99.40000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>1036.5583</v>
+        <v>2280.1589</v>
       </c>
       <c r="G78" t="n">
-        <v>100.22</v>
+        <v>-184131.3584407767</v>
       </c>
       <c r="H78" t="n">
-        <v>99.70666666666665</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3470,36 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>99</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>99</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>99</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>99</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F79" t="n">
-        <v>827.341</v>
+        <v>395.224</v>
       </c>
       <c r="G79" t="n">
-        <v>99.95333333333333</v>
+        <v>-184526.5824407767</v>
       </c>
       <c r="H79" t="n">
-        <v>99.71499999999997</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,36 +3163,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>99.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>99.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E80" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F80" t="n">
-        <v>1010</v>
+        <v>8186.2892</v>
       </c>
       <c r="G80" t="n">
-        <v>99.68666666666667</v>
+        <v>-192712.8716407767</v>
       </c>
       <c r="H80" t="n">
-        <v>99.72333333333331</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3546,36 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>1000</v>
+        <v>490.0592</v>
       </c>
       <c r="G81" t="n">
-        <v>99.48666666666666</v>
+        <v>-193202.9308407767</v>
       </c>
       <c r="H81" t="n">
-        <v>99.73166666666664</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3584,42 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>99.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C82" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="D82" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="D82" t="n">
-        <v>99.5</v>
-      </c>
       <c r="E82" t="n">
-        <v>98.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="F82" t="n">
-        <v>2584.0708</v>
+        <v>11349.1998</v>
       </c>
       <c r="G82" t="n">
-        <v>99.28</v>
+        <v>-204552.1306407767</v>
       </c>
       <c r="H82" t="n">
-        <v>99.74166666666663</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="n">
-        <v>99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3628,40 +3268,33 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>99.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="C83" t="n">
-        <v>99.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>99.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>99.8</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>339.9544</v>
+        <v>1423.192</v>
       </c>
       <c r="G83" t="n">
-        <v>99.2</v>
+        <v>-203128.9386407767</v>
       </c>
       <c r="H83" t="n">
-        <v>99.75666666666665</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3670,42 +3303,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>99.8</v>
+        <v>98.3</v>
       </c>
       <c r="C84" t="n">
-        <v>99.8</v>
+        <v>98.3</v>
       </c>
       <c r="D84" t="n">
-        <v>99.8</v>
+        <v>98.3</v>
       </c>
       <c r="E84" t="n">
-        <v>99.8</v>
+        <v>98.3</v>
       </c>
       <c r="F84" t="n">
-        <v>714</v>
+        <v>18184.4581</v>
       </c>
       <c r="G84" t="n">
-        <v>99.11999999999999</v>
+        <v>-221313.3967407767</v>
       </c>
       <c r="H84" t="n">
-        <v>99.76666666666665</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="n">
-        <v>99.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3714,42 +3338,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>99.8</v>
+        <v>98.3</v>
       </c>
       <c r="C85" t="n">
-        <v>99.8</v>
+        <v>98.3</v>
       </c>
       <c r="D85" t="n">
-        <v>99.8</v>
+        <v>98.3</v>
       </c>
       <c r="E85" t="n">
-        <v>99.8</v>
+        <v>98.3</v>
       </c>
       <c r="F85" t="n">
-        <v>353.5605</v>
+        <v>4566.6215</v>
       </c>
       <c r="G85" t="n">
-        <v>99.11999999999999</v>
+        <v>-221313.3967407767</v>
       </c>
       <c r="H85" t="n">
-        <v>99.78333333333332</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="n">
-        <v>99.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3758,40 +3373,37 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>99.8</v>
+        <v>98.2</v>
       </c>
       <c r="C86" t="n">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="D86" t="n">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="E86" t="n">
-        <v>99.8</v>
+        <v>98.2</v>
       </c>
       <c r="F86" t="n">
-        <v>1698.0946</v>
+        <v>2071.2779</v>
       </c>
       <c r="G86" t="n">
-        <v>99.13333333333334</v>
+        <v>-223384.6746407766</v>
       </c>
       <c r="H86" t="n">
-        <v>99.80166666666666</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
+        <v>98.3</v>
+      </c>
+      <c r="K86" t="n">
+        <v>98.3</v>
+      </c>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3800,40 +3412,41 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="C87" t="n">
-        <v>100</v>
+        <v>97.8</v>
       </c>
       <c r="D87" t="n">
-        <v>100</v>
+        <v>98.2</v>
       </c>
       <c r="E87" t="n">
-        <v>100</v>
+        <v>97.8</v>
       </c>
       <c r="F87" t="n">
-        <v>5395.2933</v>
+        <v>5569.6258</v>
       </c>
       <c r="G87" t="n">
-        <v>99.18000000000001</v>
+        <v>-228954.3004407767</v>
       </c>
       <c r="H87" t="n">
-        <v>99.82333333333332</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="K87" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3842,40 +3455,41 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>101</v>
+        <v>97.8</v>
       </c>
       <c r="C88" t="n">
-        <v>101</v>
+        <v>97.7</v>
       </c>
       <c r="D88" t="n">
-        <v>101</v>
+        <v>97.8</v>
       </c>
       <c r="E88" t="n">
-        <v>101</v>
+        <v>97.7</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>1147.1342</v>
       </c>
       <c r="G88" t="n">
-        <v>99.31333333333333</v>
+        <v>-230101.4346407767</v>
       </c>
       <c r="H88" t="n">
-        <v>99.86166666666666</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
+        <v>97.8</v>
+      </c>
+      <c r="K88" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3884,40 +3498,41 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>101</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D89" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E89" t="n">
-        <v>101</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>8074</v>
+        <v>147959.8166018868</v>
       </c>
       <c r="G89" t="n">
-        <v>99.5</v>
+        <v>-82141.61803888986</v>
       </c>
       <c r="H89" t="n">
-        <v>99.89166666666667</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
+        <v>97.7</v>
+      </c>
+      <c r="K89" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3926,40 +3541,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C90" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D90" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E90" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F90" t="n">
-        <v>251.924</v>
+        <v>463.9672</v>
       </c>
       <c r="G90" t="n">
-        <v>99.61333333333333</v>
+        <v>-81677.65083888987</v>
       </c>
       <c r="H90" t="n">
-        <v>99.91000000000001</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3968,40 +3582,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C91" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D91" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E91" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>11704.1263</v>
       </c>
       <c r="G91" t="n">
-        <v>99.79333333333334</v>
+        <v>-93381.77713888987</v>
       </c>
       <c r="H91" t="n">
-        <v>99.93666666666668</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,40 +3623,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C92" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D92" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E92" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F92" t="n">
-        <v>48.076</v>
+        <v>368.1988</v>
       </c>
       <c r="G92" t="n">
-        <v>99.84666666666666</v>
+        <v>-93381.77713888987</v>
       </c>
       <c r="H92" t="n">
-        <v>99.94666666666669</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4052,40 +3664,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C93" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D93" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E93" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>5900</v>
       </c>
       <c r="G93" t="n">
-        <v>99.95333333333333</v>
+        <v>-93381.77713888987</v>
       </c>
       <c r="H93" t="n">
-        <v>99.97666666666669</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4094,40 +3705,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>99.09999999999999</v>
+        <v>104</v>
       </c>
       <c r="C94" t="n">
-        <v>99.09999999999999</v>
+        <v>103</v>
       </c>
       <c r="D94" t="n">
-        <v>99.09999999999999</v>
+        <v>104</v>
       </c>
       <c r="E94" t="n">
-        <v>99.09999999999999</v>
+        <v>103</v>
       </c>
       <c r="F94" t="n">
-        <v>858.0895</v>
+        <v>774.3441</v>
       </c>
       <c r="G94" t="n">
-        <v>99.95999999999999</v>
+        <v>-93381.77713888987</v>
       </c>
       <c r="H94" t="n">
-        <v>99.97666666666669</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4136,40 +3746,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C95" t="n">
-        <v>99.2</v>
+        <v>102</v>
       </c>
       <c r="D95" t="n">
-        <v>99.2</v>
+        <v>104</v>
       </c>
       <c r="E95" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F95" t="n">
-        <v>3451</v>
+        <v>6670.8124</v>
       </c>
       <c r="G95" t="n">
-        <v>99.97333333333333</v>
+        <v>-100052.5895388899</v>
       </c>
       <c r="H95" t="n">
-        <v>99.97166666666668</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4178,40 +3787,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>99.8</v>
+        <v>102</v>
       </c>
       <c r="C96" t="n">
-        <v>99.8</v>
+        <v>102</v>
       </c>
       <c r="D96" t="n">
-        <v>99.8</v>
+        <v>102</v>
       </c>
       <c r="E96" t="n">
-        <v>99.8</v>
+        <v>102</v>
       </c>
       <c r="F96" t="n">
-        <v>471</v>
+        <v>391.7612</v>
       </c>
       <c r="G96" t="n">
-        <v>100.0266666666667</v>
+        <v>-100052.5895388899</v>
       </c>
       <c r="H96" t="n">
-        <v>99.98500000000003</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4220,40 +3828,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>99.7</v>
+        <v>102</v>
       </c>
       <c r="C97" t="n">
-        <v>99.7</v>
+        <v>101</v>
       </c>
       <c r="D97" t="n">
-        <v>99.7</v>
+        <v>102</v>
       </c>
       <c r="E97" t="n">
-        <v>99.7</v>
+        <v>101</v>
       </c>
       <c r="F97" t="n">
-        <v>455.0639</v>
+        <v>11468.3706</v>
       </c>
       <c r="G97" t="n">
-        <v>100.08</v>
+        <v>-111520.9601388899</v>
       </c>
       <c r="H97" t="n">
-        <v>99.99166666666669</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4262,40 +3869,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C98" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D98" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E98" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F98" t="n">
-        <v>393.0256</v>
+        <v>3718.8652</v>
       </c>
       <c r="G98" t="n">
-        <v>100.0933333333333</v>
+        <v>-111520.9601388899</v>
       </c>
       <c r="H98" t="n">
-        <v>99.99333333333335</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4304,42 +3910,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="C99" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="D99" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="E99" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="F99" t="n">
-        <v>4488.234</v>
+        <v>4219.3429</v>
       </c>
       <c r="G99" t="n">
-        <v>100.1066666666667</v>
+        <v>-115740.3030388899</v>
       </c>
       <c r="H99" t="n">
-        <v>99.99333333333335</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>100</v>
-      </c>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr">
+        <v>98.3</v>
+      </c>
+      <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4348,42 +3951,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="C100" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="D100" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="E100" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>108.256</v>
       </c>
       <c r="G100" t="n">
-        <v>100.1866666666667</v>
+        <v>-115740.3030388899</v>
       </c>
       <c r="H100" t="n">
-        <v>100.025</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>100</v>
-      </c>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr">
+        <v>98.3</v>
+      </c>
+      <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4392,40 +3992,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>101</v>
+        <v>99.3</v>
       </c>
       <c r="C101" t="n">
-        <v>102</v>
+        <v>99.3</v>
       </c>
       <c r="D101" t="n">
-        <v>102</v>
+        <v>99.3</v>
       </c>
       <c r="E101" t="n">
-        <v>101</v>
+        <v>99.3</v>
       </c>
       <c r="F101" t="n">
-        <v>5900</v>
+        <v>458.7407</v>
       </c>
       <c r="G101" t="n">
-        <v>100.32</v>
+        <v>-116199.0437388899</v>
       </c>
       <c r="H101" t="n">
-        <v>100.0416666666667</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4434,40 +4033,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C102" t="n">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D102" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E102" t="n">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F102" t="n">
-        <v>17452.485</v>
+        <v>309.9174</v>
       </c>
       <c r="G102" t="n">
-        <v>100.52</v>
+        <v>-116508.9611388899</v>
       </c>
       <c r="H102" t="n">
-        <v>100.075</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4476,40 +4074,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>104</v>
+        <v>98.3</v>
       </c>
       <c r="C103" t="n">
-        <v>105</v>
+        <v>98.2</v>
       </c>
       <c r="D103" t="n">
-        <v>106</v>
+        <v>98.3</v>
       </c>
       <c r="E103" t="n">
-        <v>103</v>
+        <v>98.2</v>
       </c>
       <c r="F103" t="n">
-        <v>52667.4471</v>
+        <v>1297.4471</v>
       </c>
       <c r="G103" t="n">
-        <v>100.7866666666667</v>
+        <v>-117806.4082388899</v>
       </c>
       <c r="H103" t="n">
-        <v>100.1416666666667</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4518,40 +4115,41 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>104</v>
+        <v>98.3</v>
       </c>
       <c r="C104" t="n">
-        <v>105</v>
+        <v>98.3</v>
       </c>
       <c r="D104" t="n">
-        <v>105</v>
+        <v>98.3</v>
       </c>
       <c r="E104" t="n">
-        <v>104</v>
+        <v>98.3</v>
       </c>
       <c r="F104" t="n">
-        <v>15732.8881</v>
+        <v>190.5322</v>
       </c>
       <c r="G104" t="n">
-        <v>101.0533333333333</v>
+        <v>-117615.8760388899</v>
       </c>
       <c r="H104" t="n">
-        <v>100.2316666666667</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
+        <v>98.2</v>
+      </c>
+      <c r="K104" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4560,40 +4158,1246 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="C105" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="D105" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="E105" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="F105" t="n">
+        <v>959.5974</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-117615.8760388899</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K105" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="C106" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="D106" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="E106" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="F106" t="n">
+        <v>10</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-117605.8760388899</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K106" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C107" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="D107" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="E107" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1036.5583</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-116569.3177388899</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>99</v>
+      </c>
+      <c r="C108" t="n">
+        <v>99</v>
+      </c>
+      <c r="D108" t="n">
+        <v>99</v>
+      </c>
+      <c r="E108" t="n">
+        <v>99</v>
+      </c>
+      <c r="F108" t="n">
+        <v>827.341</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-117396.6587388899</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="C109" t="n">
+        <v>99</v>
+      </c>
+      <c r="D109" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="E109" t="n">
+        <v>99</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1010</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-117396.6587388899</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>99</v>
+      </c>
+      <c r="C110" t="n">
+        <v>99</v>
+      </c>
+      <c r="D110" t="n">
+        <v>99</v>
+      </c>
+      <c r="E110" t="n">
+        <v>99</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-117396.6587388899</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>99</v>
+      </c>
+      <c r="K110" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="C111" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="D111" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="E111" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2584.0708</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-119980.7295388899</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="C112" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="D112" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="E112" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F112" t="n">
+        <v>339.9544</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-119640.7751388899</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="K112" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="C113" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="D113" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="E113" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F113" t="n">
+        <v>714</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-119640.7751388899</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="C114" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="D114" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="E114" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F114" t="n">
+        <v>353.5605</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-119640.7751388899</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="C115" t="n">
+        <v>100</v>
+      </c>
+      <c r="D115" t="n">
+        <v>100</v>
+      </c>
+      <c r="E115" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1698.0946</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-117942.6805388899</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="K115" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>100</v>
+      </c>
+      <c r="C116" t="n">
+        <v>100</v>
+      </c>
+      <c r="D116" t="n">
+        <v>100</v>
+      </c>
+      <c r="E116" t="n">
+        <v>100</v>
+      </c>
+      <c r="F116" t="n">
+        <v>5395.2933</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-117942.6805388899</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>101</v>
+      </c>
+      <c r="C117" t="n">
+        <v>101</v>
+      </c>
+      <c r="D117" t="n">
+        <v>101</v>
+      </c>
+      <c r="E117" t="n">
+        <v>101</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-117941.6805388899</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>100</v>
+      </c>
+      <c r="K117" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>101</v>
+      </c>
+      <c r="C118" t="n">
+        <v>101</v>
+      </c>
+      <c r="D118" t="n">
+        <v>101</v>
+      </c>
+      <c r="E118" t="n">
+        <v>101</v>
+      </c>
+      <c r="F118" t="n">
+        <v>8074</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-117941.6805388899</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>101</v>
+      </c>
+      <c r="K118" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>100</v>
+      </c>
+      <c r="C119" t="n">
+        <v>100</v>
+      </c>
+      <c r="D119" t="n">
+        <v>100</v>
+      </c>
+      <c r="E119" t="n">
+        <v>100</v>
+      </c>
+      <c r="F119" t="n">
+        <v>251.924</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-118193.6045388899</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>101</v>
+      </c>
+      <c r="C120" t="n">
+        <v>101</v>
+      </c>
+      <c r="D120" t="n">
+        <v>101</v>
+      </c>
+      <c r="E120" t="n">
+        <v>101</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-118192.6045388899</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>100</v>
+      </c>
+      <c r="K120" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>100</v>
+      </c>
+      <c r="C121" t="n">
+        <v>100</v>
+      </c>
+      <c r="D121" t="n">
+        <v>100</v>
+      </c>
+      <c r="E121" t="n">
+        <v>100</v>
+      </c>
+      <c r="F121" t="n">
+        <v>48.076</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-118240.6805388899</v>
+      </c>
+      <c r="H121" t="n">
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>101</v>
+      </c>
+      <c r="K121" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>101</v>
+      </c>
+      <c r="C122" t="n">
+        <v>101</v>
+      </c>
+      <c r="D122" t="n">
+        <v>101</v>
+      </c>
+      <c r="E122" t="n">
+        <v>101</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-118239.6805388899</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C123" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="D123" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E123" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F123" t="n">
+        <v>858.0895</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-119097.7700388899</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>99</v>
+      </c>
+      <c r="C124" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="D124" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="E124" t="n">
+        <v>99</v>
+      </c>
+      <c r="F124" t="n">
+        <v>3451</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-115646.7700388899</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="C125" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="D125" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="E125" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F125" t="n">
+        <v>471</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-115175.7700388899</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="C126" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="D126" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="E126" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F126" t="n">
+        <v>455.0639</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-115630.8339388899</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>100</v>
+      </c>
+      <c r="C127" t="n">
+        <v>100</v>
+      </c>
+      <c r="D127" t="n">
+        <v>100</v>
+      </c>
+      <c r="E127" t="n">
+        <v>100</v>
+      </c>
+      <c r="F127" t="n">
+        <v>393.0256</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-115237.8083388899</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>100</v>
+      </c>
+      <c r="C128" t="n">
+        <v>100</v>
+      </c>
+      <c r="D128" t="n">
+        <v>100</v>
+      </c>
+      <c r="E128" t="n">
+        <v>100</v>
+      </c>
+      <c r="F128" t="n">
+        <v>4488.234</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-115237.8083388899</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>101</v>
+      </c>
+      <c r="C129" t="n">
+        <v>101</v>
+      </c>
+      <c r="D129" t="n">
+        <v>101</v>
+      </c>
+      <c r="E129" t="n">
+        <v>101</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-115236.8083388899</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>101</v>
+      </c>
+      <c r="C130" t="n">
+        <v>102</v>
+      </c>
+      <c r="D130" t="n">
+        <v>102</v>
+      </c>
+      <c r="E130" t="n">
+        <v>101</v>
+      </c>
+      <c r="F130" t="n">
+        <v>5900</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-109336.8083388899</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
         <v>103</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C131" t="n">
         <v>103</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D131" t="n">
+        <v>104</v>
+      </c>
+      <c r="E131" t="n">
         <v>103</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F131" t="n">
+        <v>17452.485</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-91884.32333888987</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>104</v>
+      </c>
+      <c r="C132" t="n">
+        <v>105</v>
+      </c>
+      <c r="D132" t="n">
+        <v>106</v>
+      </c>
+      <c r="E132" t="n">
         <v>103</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F132" t="n">
+        <v>52667.4471</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-39216.87623888987</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>104</v>
+      </c>
+      <c r="C133" t="n">
+        <v>105</v>
+      </c>
+      <c r="D133" t="n">
+        <v>105</v>
+      </c>
+      <c r="E133" t="n">
+        <v>104</v>
+      </c>
+      <c r="F133" t="n">
+        <v>15732.8881</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-39216.87623888987</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>103</v>
+      </c>
+      <c r="C134" t="n">
+        <v>103</v>
+      </c>
+      <c r="D134" t="n">
+        <v>103</v>
+      </c>
+      <c r="E134" t="n">
+        <v>103</v>
+      </c>
+      <c r="F134" t="n">
         <v>243.5041</v>
       </c>
-      <c r="G105" t="n">
-        <v>101.2533333333333</v>
-      </c>
-      <c r="H105" t="n">
-        <v>100.265</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr">
+      <c r="G134" t="n">
+        <v>-39460.38033888987</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="N105" t="n">
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-30 BackTest ELF.xlsx
+++ b/BackTest/2019-10-30 BackTest ELF.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M134"/>
+  <dimension ref="A1:N134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>359.0647</v>
       </c>
       <c r="G2" t="n">
-        <v>-72495.9515407767</v>
+        <v>101.85</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>581.907</v>
       </c>
       <c r="G3" t="n">
-        <v>-73077.85854077671</v>
+        <v>101.75</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,7 +525,7 @@
         <v>847.4226</v>
       </c>
       <c r="G4" t="n">
-        <v>-73077.85854077671</v>
+        <v>101.7</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,13 +561,13 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>-73076.85854077671</v>
+        <v>101.7</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +597,7 @@
         <v>1236.897</v>
       </c>
       <c r="G6" t="n">
-        <v>-74313.75554077671</v>
+        <v>101.7</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,7 +633,7 @@
         <v>618.4509</v>
       </c>
       <c r="G7" t="n">
-        <v>-74313.75554077671</v>
+        <v>101.75</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -658,13 +669,13 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>-74312.75554077671</v>
+        <v>101.85</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,7 +705,7 @@
         <v>348.5743</v>
       </c>
       <c r="G9" t="n">
-        <v>-74661.3298407767</v>
+        <v>101.8</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,13 +741,13 @@
         <v>70093.6724</v>
       </c>
       <c r="G10" t="n">
-        <v>-144755.0022407767</v>
+        <v>101.75</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,7 +777,7 @@
         <v>3710.3539</v>
       </c>
       <c r="G11" t="n">
-        <v>-141044.6483407767</v>
+        <v>101.75</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -798,13 +813,13 @@
         <v>4574.9228</v>
       </c>
       <c r="G12" t="n">
-        <v>-141044.6483407767</v>
+        <v>101.8</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -833,7 +849,7 @@
         <v>2590.158</v>
       </c>
       <c r="G13" t="n">
-        <v>-141044.6483407767</v>
+        <v>101.75</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -868,7 +885,7 @@
         <v>9968.531499999999</v>
       </c>
       <c r="G14" t="n">
-        <v>-141044.6483407767</v>
+        <v>101.75</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -903,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>-141043.6483407767</v>
+        <v>101.75</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -938,13 +957,13 @@
         <v>295.4554</v>
       </c>
       <c r="G16" t="n">
-        <v>-141339.1037407767</v>
+        <v>101.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -973,13 +993,13 @@
         <v>1034.5956</v>
       </c>
       <c r="G17" t="n">
-        <v>-141339.1037407767</v>
+        <v>101.65</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1008,13 +1029,13 @@
         <v>8848.35</v>
       </c>
       <c r="G18" t="n">
-        <v>-141339.1037407767</v>
+        <v>101.6</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1043,13 +1065,13 @@
         <v>6540</v>
       </c>
       <c r="G19" t="n">
-        <v>-141339.1037407767</v>
+        <v>101.55</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1078,13 +1101,13 @@
         <v>2102.3217</v>
       </c>
       <c r="G20" t="n">
-        <v>-141339.1037407767</v>
+        <v>101.5</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1113,13 +1137,13 @@
         <v>4100</v>
       </c>
       <c r="G21" t="n">
-        <v>-145439.1037407767</v>
+        <v>101.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1148,13 +1173,13 @@
         <v>445.5313</v>
       </c>
       <c r="G22" t="n">
-        <v>-145439.1037407767</v>
+        <v>101.25</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1183,7 +1209,7 @@
         <v>2494.5685</v>
       </c>
       <c r="G23" t="n">
-        <v>-145439.1037407767</v>
+        <v>101.2</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1218,7 +1245,7 @@
         <v>4705.8045</v>
       </c>
       <c r="G24" t="n">
-        <v>-145439.1037407767</v>
+        <v>101.15</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1253,7 +1281,7 @@
         <v>23364.9751</v>
       </c>
       <c r="G25" t="n">
-        <v>-145439.1037407767</v>
+        <v>101</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1288,7 +1317,7 @@
         <v>2341.6973</v>
       </c>
       <c r="G26" t="n">
-        <v>-147780.8010407767</v>
+        <v>100.89</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1323,7 +1353,7 @@
         <v>599.9131</v>
       </c>
       <c r="G27" t="n">
-        <v>-148380.7141407767</v>
+        <v>100.775</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1358,7 +1389,7 @@
         <v>2587.6584</v>
       </c>
       <c r="G28" t="n">
-        <v>-145793.0557407767</v>
+        <v>100.59</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1393,7 +1425,7 @@
         <v>1002.004</v>
       </c>
       <c r="G29" t="n">
-        <v>-146795.0597407767</v>
+        <v>100.53</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1428,7 +1461,7 @@
         <v>956.6968000000001</v>
       </c>
       <c r="G30" t="n">
-        <v>-147751.7565407767</v>
+        <v>100.445</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1463,7 +1497,7 @@
         <v>473.037</v>
       </c>
       <c r="G31" t="n">
-        <v>-148224.7935407767</v>
+        <v>100.35</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1498,7 +1533,7 @@
         <v>13750</v>
       </c>
       <c r="G32" t="n">
-        <v>-161974.7935407767</v>
+        <v>100.255</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1533,7 +1569,7 @@
         <v>475.8118</v>
       </c>
       <c r="G33" t="n">
-        <v>-161498.9817407767</v>
+        <v>100.16</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1568,7 +1605,7 @@
         <v>4044.9999</v>
       </c>
       <c r="G34" t="n">
-        <v>-165543.9816407767</v>
+        <v>100.06</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1603,7 +1641,7 @@
         <v>10</v>
       </c>
       <c r="G35" t="n">
-        <v>-165533.9816407767</v>
+        <v>99.95000000000002</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1638,7 +1677,7 @@
         <v>4559.9112</v>
       </c>
       <c r="G36" t="n">
-        <v>-170093.8928407767</v>
+        <v>99.85000000000002</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1673,7 +1713,7 @@
         <v>29.4117</v>
       </c>
       <c r="G37" t="n">
-        <v>-170093.8928407767</v>
+        <v>99.75000000000003</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1708,7 +1749,7 @@
         <v>1176.7347</v>
       </c>
       <c r="G38" t="n">
-        <v>-171270.6275407767</v>
+        <v>99.65000000000002</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1743,7 +1785,7 @@
         <v>0.0001</v>
       </c>
       <c r="G39" t="n">
-        <v>-171270.6275407767</v>
+        <v>99.54500000000003</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1778,7 +1821,7 @@
         <v>99</v>
       </c>
       <c r="G40" t="n">
-        <v>-171270.6275407767</v>
+        <v>99.44000000000003</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1813,7 +1857,7 @@
         <v>4400</v>
       </c>
       <c r="G41" t="n">
-        <v>-175670.6275407767</v>
+        <v>99.38000000000004</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1848,7 +1893,7 @@
         <v>2000</v>
       </c>
       <c r="G42" t="n">
-        <v>-177670.6275407767</v>
+        <v>99.31000000000003</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1883,7 +1929,7 @@
         <v>386.9239</v>
       </c>
       <c r="G43" t="n">
-        <v>-177670.6275407767</v>
+        <v>99.24000000000004</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1918,7 +1965,7 @@
         <v>3150</v>
       </c>
       <c r="G44" t="n">
-        <v>-180820.6275407767</v>
+        <v>99.17000000000003</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1953,7 +2001,7 @@
         <v>10.957</v>
       </c>
       <c r="G45" t="n">
-        <v>-180820.6275407767</v>
+        <v>99.09500000000003</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1988,7 +2037,7 @@
         <v>1490.4263</v>
       </c>
       <c r="G46" t="n">
-        <v>-180820.6275407767</v>
+        <v>99.03000000000003</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2023,7 +2073,7 @@
         <v>1341.3837</v>
       </c>
       <c r="G47" t="n">
-        <v>-180820.6275407767</v>
+        <v>98.97000000000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2058,7 +2109,7 @@
         <v>62.5728</v>
       </c>
       <c r="G48" t="n">
-        <v>-180820.6275407767</v>
+        <v>98.93000000000004</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2093,7 +2145,7 @@
         <v>541.0495</v>
       </c>
       <c r="G49" t="n">
-        <v>-180820.6275407767</v>
+        <v>98.86500000000002</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2128,7 +2181,7 @@
         <v>9186.981</v>
       </c>
       <c r="G50" t="n">
-        <v>-180820.6275407767</v>
+        <v>98.82500000000002</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2163,7 +2217,7 @@
         <v>4300</v>
       </c>
       <c r="G51" t="n">
-        <v>-185120.6275407767</v>
+        <v>98.78500000000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2198,7 +2253,7 @@
         <v>150.8737</v>
       </c>
       <c r="G52" t="n">
-        <v>-184969.7538407767</v>
+        <v>98.77500000000002</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2233,7 +2289,7 @@
         <v>1000</v>
       </c>
       <c r="G53" t="n">
-        <v>-183969.7538407767</v>
+        <v>98.78000000000002</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2268,7 +2325,7 @@
         <v>100</v>
       </c>
       <c r="G54" t="n">
-        <v>-184069.7538407767</v>
+        <v>98.77000000000002</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2303,7 +2361,7 @@
         <v>1000</v>
       </c>
       <c r="G55" t="n">
-        <v>-183069.7538407767</v>
+        <v>98.72500000000004</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2338,7 +2397,7 @@
         <v>100</v>
       </c>
       <c r="G56" t="n">
-        <v>-183169.7538407767</v>
+        <v>98.71000000000004</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2373,7 +2433,7 @@
         <v>1016.2816</v>
       </c>
       <c r="G57" t="n">
-        <v>-183169.7538407767</v>
+        <v>98.69500000000002</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,6 +2447,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2408,7 +2469,7 @@
         <v>411.7552</v>
       </c>
       <c r="G58" t="n">
-        <v>-182757.9986407767</v>
+        <v>98.70500000000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,6 +2483,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2443,7 +2505,7 @@
         <v>3119.5017</v>
       </c>
       <c r="G59" t="n">
-        <v>-185877.5003407767</v>
+        <v>98.70500000000001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,6 +2519,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2478,7 +2541,7 @@
         <v>944.9198</v>
       </c>
       <c r="G60" t="n">
-        <v>-184932.5805407767</v>
+        <v>98.73000000000002</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,6 +2555,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2513,7 +2577,7 @@
         <v>19.1156</v>
       </c>
       <c r="G61" t="n">
-        <v>-184932.5805407767</v>
+        <v>98.76000000000002</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,6 +2591,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2548,7 +2613,7 @@
         <v>500.3186</v>
       </c>
       <c r="G62" t="n">
-        <v>-185432.8991407767</v>
+        <v>98.80000000000003</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,6 +2627,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2583,7 +2649,7 @@
         <v>485.7831</v>
       </c>
       <c r="G63" t="n">
-        <v>-185918.6822407767</v>
+        <v>98.82500000000002</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,6 +2663,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2618,7 +2685,7 @@
         <v>966.7767</v>
       </c>
       <c r="G64" t="n">
-        <v>-184951.9055407767</v>
+        <v>98.87000000000003</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,6 +2699,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2653,7 +2721,7 @@
         <v>1312.4957</v>
       </c>
       <c r="G65" t="n">
-        <v>-186264.4012407767</v>
+        <v>98.92000000000003</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,6 +2735,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2688,7 +2757,7 @@
         <v>644.1562</v>
       </c>
       <c r="G66" t="n">
-        <v>-185620.2450407767</v>
+        <v>98.96000000000004</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,6 +2771,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2723,7 +2793,7 @@
         <v>1211</v>
       </c>
       <c r="G67" t="n">
-        <v>-184409.2450407767</v>
+        <v>99.03000000000004</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,6 +2807,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2758,7 +2829,7 @@
         <v>3836.5839</v>
       </c>
       <c r="G68" t="n">
-        <v>-180572.6611407767</v>
+        <v>99.10500000000005</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,6 +2843,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2793,7 +2865,7 @@
         <v>203.9176</v>
       </c>
       <c r="G69" t="n">
-        <v>-180776.5787407767</v>
+        <v>99.13500000000003</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,6 +2879,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2828,7 +2901,7 @@
         <v>449.3348</v>
       </c>
       <c r="G70" t="n">
-        <v>-180327.2439407767</v>
+        <v>99.21000000000004</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,6 +2915,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2863,7 +2937,7 @@
         <v>15750</v>
       </c>
       <c r="G71" t="n">
-        <v>-180327.2439407767</v>
+        <v>99.34500000000004</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,6 +2951,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2898,7 +2973,7 @@
         <v>1414.997</v>
       </c>
       <c r="G72" t="n">
-        <v>-180327.2439407767</v>
+        <v>99.45000000000002</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,6 +2987,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2933,7 +3009,7 @@
         <v>560.8896</v>
       </c>
       <c r="G73" t="n">
-        <v>-180888.1335407767</v>
+        <v>99.49000000000002</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,6 +3023,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2968,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="G74" t="n">
-        <v>-180887.1335407767</v>
+        <v>99.60000000000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,6 +3059,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3003,7 +3081,7 @@
         <v>353.2277</v>
       </c>
       <c r="G75" t="n">
-        <v>-180887.1335407767</v>
+        <v>99.705</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,6 +3095,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3038,7 +3117,7 @@
         <v>10</v>
       </c>
       <c r="G76" t="n">
-        <v>-180887.1335407767</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,6 +3131,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3073,7 +3153,7 @@
         <v>964.066</v>
       </c>
       <c r="G77" t="n">
-        <v>-181851.1995407767</v>
+        <v>99.88499999999998</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,6 +3167,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3108,7 +3189,7 @@
         <v>2280.1589</v>
       </c>
       <c r="G78" t="n">
-        <v>-184131.3584407767</v>
+        <v>99.92499999999998</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,6 +3203,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3143,7 +3225,7 @@
         <v>395.224</v>
       </c>
       <c r="G79" t="n">
-        <v>-184526.5824407767</v>
+        <v>99.95999999999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,6 +3239,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3178,7 +3261,7 @@
         <v>8186.2892</v>
       </c>
       <c r="G80" t="n">
-        <v>-192712.8716407767</v>
+        <v>99.94499999999998</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,6 +3275,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3213,7 +3297,7 @@
         <v>490.0592</v>
       </c>
       <c r="G81" t="n">
-        <v>-193202.9308407767</v>
+        <v>99.92999999999998</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,6 +3311,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3248,7 +3333,7 @@
         <v>11349.1998</v>
       </c>
       <c r="G82" t="n">
-        <v>-204552.1306407767</v>
+        <v>99.90499999999997</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,6 +3347,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3283,7 +3369,7 @@
         <v>1423.192</v>
       </c>
       <c r="G83" t="n">
-        <v>-203128.9386407767</v>
+        <v>99.86999999999998</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,6 +3383,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3318,7 +3405,7 @@
         <v>18184.4581</v>
       </c>
       <c r="G84" t="n">
-        <v>-221313.3967407767</v>
+        <v>99.80999999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,6 +3419,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3353,7 +3441,7 @@
         <v>4566.6215</v>
       </c>
       <c r="G85" t="n">
-        <v>-221313.3967407767</v>
+        <v>99.75</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,6 +3455,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3388,7 +3477,7 @@
         <v>2071.2779</v>
       </c>
       <c r="G86" t="n">
-        <v>-223384.6746407766</v>
+        <v>99.69499999999999</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
@@ -3406,6 +3495,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3427,7 +3517,7 @@
         <v>5569.6258</v>
       </c>
       <c r="G87" t="n">
-        <v>-228954.3004407767</v>
+        <v>99.60999999999999</v>
       </c>
       <c r="H87" t="n">
         <v>1</v>
@@ -3449,6 +3539,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3470,7 +3561,7 @@
         <v>1147.1342</v>
       </c>
       <c r="G88" t="n">
-        <v>-230101.4346407767</v>
+        <v>99.5</v>
       </c>
       <c r="H88" t="n">
         <v>1</v>
@@ -3492,6 +3583,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3513,7 +3605,7 @@
         <v>147959.8166018868</v>
       </c>
       <c r="G89" t="n">
-        <v>-82141.61803888986</v>
+        <v>99.52500000000001</v>
       </c>
       <c r="H89" t="n">
         <v>1</v>
@@ -3535,6 +3627,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3556,7 +3649,7 @@
         <v>463.9672</v>
       </c>
       <c r="G90" t="n">
-        <v>-81677.65083888987</v>
+        <v>99.72499999999999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3576,6 +3669,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3597,7 +3691,7 @@
         <v>11704.1263</v>
       </c>
       <c r="G91" t="n">
-        <v>-93381.77713888987</v>
+        <v>99.77500000000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3617,6 +3711,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3638,7 +3733,7 @@
         <v>368.1988</v>
       </c>
       <c r="G92" t="n">
-        <v>-93381.77713888987</v>
+        <v>99.875</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3658,6 +3753,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3679,7 +3775,7 @@
         <v>5900</v>
       </c>
       <c r="G93" t="n">
-        <v>-93381.77713888987</v>
+        <v>100.025</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3699,6 +3795,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3720,7 +3817,7 @@
         <v>774.3441</v>
       </c>
       <c r="G94" t="n">
-        <v>-93381.77713888987</v>
+        <v>100.175</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3740,6 +3837,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3761,7 +3859,7 @@
         <v>6670.8124</v>
       </c>
       <c r="G95" t="n">
-        <v>-100052.5895388899</v>
+        <v>100.275</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3781,6 +3879,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3802,7 +3901,7 @@
         <v>391.7612</v>
       </c>
       <c r="G96" t="n">
-        <v>-100052.5895388899</v>
+        <v>100.325</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3822,6 +3921,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3843,7 +3943,7 @@
         <v>11468.3706</v>
       </c>
       <c r="G97" t="n">
-        <v>-111520.9601388899</v>
+        <v>100.425</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3863,6 +3963,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3884,7 +3985,7 @@
         <v>3718.8652</v>
       </c>
       <c r="G98" t="n">
-        <v>-111520.9601388899</v>
+        <v>100.475</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3904,6 +4005,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3925,7 +4027,7 @@
         <v>4219.3429</v>
       </c>
       <c r="G99" t="n">
-        <v>-115740.3030388899</v>
+        <v>100.485</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3945,6 +4047,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3966,7 +4069,7 @@
         <v>108.256</v>
       </c>
       <c r="G100" t="n">
-        <v>-115740.3030388899</v>
+        <v>100.52</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3986,6 +4089,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4007,7 +4111,7 @@
         <v>458.7407</v>
       </c>
       <c r="G101" t="n">
-        <v>-116199.0437388899</v>
+        <v>100.53</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4027,6 +4131,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4048,7 +4153,7 @@
         <v>309.9174</v>
       </c>
       <c r="G102" t="n">
-        <v>-116508.9611388899</v>
+        <v>100.535</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4068,6 +4173,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4089,7 +4195,7 @@
         <v>1297.4471</v>
       </c>
       <c r="G103" t="n">
-        <v>-117806.4082388899</v>
+        <v>100.53</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4109,6 +4215,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,7 +4237,7 @@
         <v>190.5322</v>
       </c>
       <c r="G104" t="n">
-        <v>-117615.8760388899</v>
+        <v>100.5300000000001</v>
       </c>
       <c r="H104" t="n">
         <v>1</v>
@@ -4152,6 +4259,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4173,7 +4281,7 @@
         <v>959.5974</v>
       </c>
       <c r="G105" t="n">
-        <v>-117615.8760388899</v>
+        <v>100.5300000000001</v>
       </c>
       <c r="H105" t="n">
         <v>1</v>
@@ -4195,6 +4303,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4216,7 +4325,7 @@
         <v>10</v>
       </c>
       <c r="G106" t="n">
-        <v>-117605.8760388899</v>
+        <v>100.5800000000001</v>
       </c>
       <c r="H106" t="n">
         <v>1</v>
@@ -4238,6 +4347,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4259,7 +4369,7 @@
         <v>1036.5583</v>
       </c>
       <c r="G107" t="n">
-        <v>-116569.3177388899</v>
+        <v>100.64</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4279,6 +4389,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4300,7 +4411,7 @@
         <v>827.341</v>
       </c>
       <c r="G108" t="n">
-        <v>-117396.6587388899</v>
+        <v>100.7000000000001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4320,6 +4431,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4341,7 +4453,7 @@
         <v>1010</v>
       </c>
       <c r="G109" t="n">
-        <v>-117396.6587388899</v>
+        <v>100.6850000000001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4361,6 +4473,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4382,7 +4495,7 @@
         <v>1000</v>
       </c>
       <c r="G110" t="n">
-        <v>-117396.6587388899</v>
+        <v>100.4350000000001</v>
       </c>
       <c r="H110" t="n">
         <v>1</v>
@@ -4404,6 +4517,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4425,7 +4539,7 @@
         <v>2584.0708</v>
       </c>
       <c r="G111" t="n">
-        <v>-119980.7295388899</v>
+        <v>100.3000000000001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4445,6 +4559,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4466,7 +4581,7 @@
         <v>339.9544</v>
       </c>
       <c r="G112" t="n">
-        <v>-119640.7751388899</v>
+        <v>100.1400000000001</v>
       </c>
       <c r="H112" t="n">
         <v>1</v>
@@ -4488,6 +4603,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4509,7 +4625,7 @@
         <v>714</v>
       </c>
       <c r="G113" t="n">
-        <v>-119640.7751388899</v>
+        <v>99.98000000000009</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4529,6 +4645,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4550,7 +4667,7 @@
         <v>353.5605</v>
       </c>
       <c r="G114" t="n">
-        <v>-119640.7751388899</v>
+        <v>99.7700000000001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4570,6 +4687,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4591,7 +4709,7 @@
         <v>1698.0946</v>
       </c>
       <c r="G115" t="n">
-        <v>-117942.6805388899</v>
+        <v>99.6100000000001</v>
       </c>
       <c r="H115" t="n">
         <v>1</v>
@@ -4613,6 +4731,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4634,7 +4753,7 @@
         <v>5395.2933</v>
       </c>
       <c r="G116" t="n">
-        <v>-117942.6805388899</v>
+        <v>99.5100000000001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4654,6 +4773,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4675,7 +4795,7 @@
         <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>-117941.6805388899</v>
+        <v>99.46000000000011</v>
       </c>
       <c r="H117" t="n">
         <v>1</v>
@@ -4697,6 +4817,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4718,7 +4839,7 @@
         <v>8074</v>
       </c>
       <c r="G118" t="n">
-        <v>-117941.6805388899</v>
+        <v>99.46000000000011</v>
       </c>
       <c r="H118" t="n">
         <v>1</v>
@@ -4740,6 +4861,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4761,7 +4883,7 @@
         <v>251.924</v>
       </c>
       <c r="G119" t="n">
-        <v>-118193.6045388899</v>
+        <v>99.47000000000011</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4781,6 +4903,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4802,7 +4925,7 @@
         <v>1</v>
       </c>
       <c r="G120" t="n">
-        <v>-118192.6045388899</v>
+        <v>99.53000000000011</v>
       </c>
       <c r="H120" t="n">
         <v>1</v>
@@ -4824,6 +4947,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4845,7 +4969,7 @@
         <v>48.076</v>
       </c>
       <c r="G121" t="n">
-        <v>-118240.6805388899</v>
+        <v>99.56500000000011</v>
       </c>
       <c r="H121" t="n">
         <v>1</v>
@@ -4867,6 +4991,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4888,7 +5013,7 @@
         <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>-118239.6805388899</v>
+        <v>99.66500000000011</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4908,6 +5033,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4929,7 +5055,7 @@
         <v>858.0895</v>
       </c>
       <c r="G123" t="n">
-        <v>-119097.7700388899</v>
+        <v>99.7050000000001</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4949,6 +5075,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4970,7 +5097,7 @@
         <v>3451</v>
       </c>
       <c r="G124" t="n">
-        <v>-115646.7700388899</v>
+        <v>99.74000000000011</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4990,6 +5117,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5011,7 +5139,7 @@
         <v>471</v>
       </c>
       <c r="G125" t="n">
-        <v>-115175.7700388899</v>
+        <v>99.81500000000011</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5031,6 +5159,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5052,7 +5181,7 @@
         <v>455.0639</v>
       </c>
       <c r="G126" t="n">
-        <v>-115630.8339388899</v>
+        <v>99.84000000000012</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5072,6 +5201,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5093,7 +5223,7 @@
         <v>393.0256</v>
       </c>
       <c r="G127" t="n">
-        <v>-115237.8083388899</v>
+        <v>99.87000000000009</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5113,6 +5243,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5134,7 +5265,7 @@
         <v>4488.234</v>
       </c>
       <c r="G128" t="n">
-        <v>-115237.8083388899</v>
+        <v>99.9200000000001</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5154,6 +5285,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5175,7 +5307,7 @@
         <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>-115236.8083388899</v>
+        <v>100.0050000000001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5195,6 +5327,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5216,7 +5349,7 @@
         <v>5900</v>
       </c>
       <c r="G130" t="n">
-        <v>-109336.8083388899</v>
+        <v>100.1050000000001</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5236,6 +5369,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5257,7 +5391,7 @@
         <v>17452.485</v>
       </c>
       <c r="G131" t="n">
-        <v>-91884.32333888987</v>
+        <v>100.2900000000001</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5277,6 +5411,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5298,7 +5433,7 @@
         <v>52667.4471</v>
       </c>
       <c r="G132" t="n">
-        <v>-39216.87623888987</v>
+        <v>100.5000000000001</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5318,6 +5453,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5339,7 +5475,7 @@
         <v>15732.8881</v>
       </c>
       <c r="G133" t="n">
-        <v>-39216.87623888987</v>
+        <v>100.7100000000001</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5359,6 +5495,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5380,7 +5517,7 @@
         <v>243.5041</v>
       </c>
       <c r="G134" t="n">
-        <v>-39460.38033888987</v>
+        <v>100.8700000000001</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5400,6 +5537,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-30 BackTest ELF.xlsx
+++ b/BackTest/2019-10-30 BackTest ELF.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N134"/>
+  <dimension ref="A1:N163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -450,10 +450,10 @@
         <v>103</v>
       </c>
       <c r="F2" t="n">
-        <v>359.0647</v>
+        <v>1635.7176</v>
       </c>
       <c r="G2" t="n">
-        <v>101.85</v>
+        <v>30604.2956592233</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C3" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D3" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E3" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F3" t="n">
-        <v>581.907</v>
+        <v>767.8786</v>
       </c>
       <c r="G3" t="n">
-        <v>101.75</v>
+        <v>30604.2956592233</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C4" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D4" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E4" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F4" t="n">
-        <v>847.4226</v>
+        <v>2118.8404</v>
       </c>
       <c r="G4" t="n">
-        <v>101.7</v>
+        <v>30604.2956592233</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -558,10 +558,10 @@
         <v>103</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>2051.8689</v>
       </c>
       <c r="G5" t="n">
-        <v>101.7</v>
+        <v>30604.2956592233</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D6" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E6" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F6" t="n">
-        <v>1236.897</v>
+        <v>919</v>
       </c>
       <c r="G6" t="n">
-        <v>101.7</v>
+        <v>30604.2956592233</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C7" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D7" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E7" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F7" t="n">
-        <v>618.4509</v>
+        <v>2763.4209</v>
       </c>
       <c r="G7" t="n">
-        <v>101.75</v>
+        <v>30604.2956592233</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -666,10 +666,10 @@
         <v>103</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>236.5791</v>
       </c>
       <c r="G8" t="n">
-        <v>101.85</v>
+        <v>30604.2956592233</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C9" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D9" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E9" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F9" t="n">
-        <v>348.5743</v>
+        <v>10434.8286</v>
       </c>
       <c r="G9" t="n">
-        <v>101.8</v>
+        <v>30604.2956592233</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D10" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F10" t="n">
-        <v>70093.6724</v>
+        <v>56517.5607</v>
       </c>
       <c r="G10" t="n">
-        <v>101.75</v>
+        <v>-25913.2650407767</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C11" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D11" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E11" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F11" t="n">
-        <v>3710.3539</v>
+        <v>1393.2948</v>
       </c>
       <c r="G11" t="n">
-        <v>101.75</v>
+        <v>-24519.9702407767</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C12" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D12" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E12" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F12" t="n">
-        <v>4574.9228</v>
+        <v>2183.4276</v>
       </c>
       <c r="G12" t="n">
-        <v>101.8</v>
+        <v>-24519.9702407767</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C13" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D13" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E13" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F13" t="n">
-        <v>2590.158</v>
+        <v>9781.607099999999</v>
       </c>
       <c r="G13" t="n">
-        <v>101.75</v>
+        <v>-34301.5773407767</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C14" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D14" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E14" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F14" t="n">
-        <v>9968.531499999999</v>
+        <v>191.0097</v>
       </c>
       <c r="G14" t="n">
-        <v>101.75</v>
+        <v>-34110.5676407767</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -918,16 +918,16 @@
         <v>102</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>24743.4903</v>
       </c>
       <c r="G15" t="n">
-        <v>101.75</v>
+        <v>-58854.05794077671</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -954,10 +954,10 @@
         <v>101</v>
       </c>
       <c r="F16" t="n">
-        <v>295.4554</v>
+        <v>1000</v>
       </c>
       <c r="G16" t="n">
-        <v>101.7</v>
+        <v>-59854.05794077671</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -990,16 +990,16 @@
         <v>101</v>
       </c>
       <c r="F17" t="n">
-        <v>1034.5956</v>
+        <v>3963.0093</v>
       </c>
       <c r="G17" t="n">
-        <v>101.65</v>
+        <v>-59854.05794077671</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C18" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D18" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E18" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F18" t="n">
-        <v>8848.35</v>
+        <v>1393.2948</v>
       </c>
       <c r="G18" t="n">
-        <v>101.6</v>
+        <v>-58460.7631407767</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C19" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D19" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E19" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F19" t="n">
-        <v>6540</v>
+        <v>5673.0385</v>
       </c>
       <c r="G19" t="n">
-        <v>101.55</v>
+        <v>-58460.7631407767</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1089,25 +1089,25 @@
         <v>101</v>
       </c>
       <c r="C20" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D20" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E20" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>2102.3217</v>
+        <v>12224</v>
       </c>
       <c r="G20" t="n">
-        <v>101.5</v>
+        <v>-70684.7631407767</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1134,16 +1134,16 @@
         <v>100</v>
       </c>
       <c r="F21" t="n">
-        <v>4100</v>
+        <v>1702</v>
       </c>
       <c r="G21" t="n">
-        <v>101.4</v>
+        <v>-70684.7631407767</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1158,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C22" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D22" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E22" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F22" t="n">
-        <v>445.5313</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>101.25</v>
+        <v>-70683.7631407767</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C23" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D23" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E23" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F23" t="n">
-        <v>2494.5685</v>
+        <v>2312.6068</v>
       </c>
       <c r="G23" t="n">
-        <v>101.2</v>
+        <v>-72996.3699407767</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C24" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D24" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E24" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F24" t="n">
-        <v>4705.8045</v>
+        <v>13089.7916</v>
       </c>
       <c r="G24" t="n">
-        <v>101.15</v>
+        <v>-59906.5783407767</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C25" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D25" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E25" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F25" t="n">
-        <v>23364.9751</v>
+        <v>1421.4606</v>
       </c>
       <c r="G25" t="n">
-        <v>101</v>
+        <v>-59906.5783407767</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>99.8</v>
+        <v>102</v>
       </c>
       <c r="C26" t="n">
-        <v>99.8</v>
+        <v>102</v>
       </c>
       <c r="D26" t="n">
-        <v>99.8</v>
+        <v>102</v>
       </c>
       <c r="E26" t="n">
-        <v>99.8</v>
+        <v>102</v>
       </c>
       <c r="F26" t="n">
-        <v>2341.6973</v>
+        <v>2053.6708</v>
       </c>
       <c r="G26" t="n">
-        <v>100.89</v>
+        <v>-59906.5783407767</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>99.7</v>
+        <v>102</v>
       </c>
       <c r="C27" t="n">
-        <v>99.3</v>
+        <v>101</v>
       </c>
       <c r="D27" t="n">
-        <v>99.7</v>
+        <v>102</v>
       </c>
       <c r="E27" t="n">
-        <v>99.3</v>
+        <v>101</v>
       </c>
       <c r="F27" t="n">
-        <v>599.9131</v>
+        <v>13614.2442</v>
       </c>
       <c r="G27" t="n">
-        <v>100.775</v>
+        <v>-73520.8225407767</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>99.3</v>
+        <v>102</v>
       </c>
       <c r="C28" t="n">
-        <v>99.90000000000001</v>
+        <v>102</v>
       </c>
       <c r="D28" t="n">
-        <v>99.90000000000001</v>
+        <v>102</v>
       </c>
       <c r="E28" t="n">
-        <v>99.2</v>
+        <v>102</v>
       </c>
       <c r="F28" t="n">
-        <v>2587.6584</v>
+        <v>665.8063</v>
       </c>
       <c r="G28" t="n">
-        <v>100.59</v>
+        <v>-72855.01624077671</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>99.8</v>
+        <v>102</v>
       </c>
       <c r="C29" t="n">
-        <v>99.8</v>
+        <v>102</v>
       </c>
       <c r="D29" t="n">
-        <v>99.8</v>
+        <v>102</v>
       </c>
       <c r="E29" t="n">
-        <v>99.8</v>
+        <v>102</v>
       </c>
       <c r="F29" t="n">
-        <v>1002.004</v>
+        <v>2334.1936</v>
       </c>
       <c r="G29" t="n">
-        <v>100.53</v>
+        <v>-72855.01624077671</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>99.3</v>
+        <v>102</v>
       </c>
       <c r="C30" t="n">
-        <v>99.3</v>
+        <v>102</v>
       </c>
       <c r="D30" t="n">
-        <v>99.3</v>
+        <v>102</v>
       </c>
       <c r="E30" t="n">
-        <v>99.3</v>
+        <v>102</v>
       </c>
       <c r="F30" t="n">
-        <v>956.6968000000001</v>
+        <v>853.2412</v>
       </c>
       <c r="G30" t="n">
-        <v>100.445</v>
+        <v>-72855.01624077671</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>99.09999999999999</v>
+        <v>103</v>
       </c>
       <c r="C31" t="n">
-        <v>99.09999999999999</v>
+        <v>103</v>
       </c>
       <c r="D31" t="n">
-        <v>99.09999999999999</v>
+        <v>103</v>
       </c>
       <c r="E31" t="n">
-        <v>99.09999999999999</v>
+        <v>103</v>
       </c>
       <c r="F31" t="n">
-        <v>473.037</v>
+        <v>359.0647</v>
       </c>
       <c r="G31" t="n">
-        <v>100.35</v>
+        <v>-72495.9515407767</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>99.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="C32" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" t="n">
-        <v>99.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="E32" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F32" t="n">
-        <v>13750</v>
+        <v>581.907</v>
       </c>
       <c r="G32" t="n">
-        <v>100.255</v>
+        <v>-73077.85854077671</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>99.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="C33" t="n">
-        <v>99.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="D33" t="n">
-        <v>99.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="E33" t="n">
-        <v>99.09999999999999</v>
+        <v>101</v>
       </c>
       <c r="F33" t="n">
-        <v>475.8118</v>
+        <v>847.4226</v>
       </c>
       <c r="G33" t="n">
-        <v>100.16</v>
+        <v>-73077.85854077671</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C34" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D34" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E34" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F34" t="n">
-        <v>4044.9999</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>100.06</v>
+        <v>-73076.85854077671</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>99.8</v>
+        <v>102</v>
       </c>
       <c r="C35" t="n">
-        <v>99.8</v>
+        <v>102</v>
       </c>
       <c r="D35" t="n">
-        <v>99.8</v>
+        <v>102</v>
       </c>
       <c r="E35" t="n">
-        <v>99.8</v>
+        <v>102</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>1236.897</v>
       </c>
       <c r="G35" t="n">
-        <v>99.95000000000002</v>
+        <v>-74313.75554077671</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C36" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D36" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E36" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F36" t="n">
-        <v>4559.9112</v>
+        <v>618.4509</v>
       </c>
       <c r="G36" t="n">
-        <v>99.85000000000002</v>
+        <v>-74313.75554077671</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C37" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D37" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E37" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F37" t="n">
-        <v>29.4117</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>99.75000000000003</v>
+        <v>-74312.75554077671</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C38" t="n">
-        <v>98.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="D38" t="n">
-        <v>99.8</v>
+        <v>101</v>
       </c>
       <c r="E38" t="n">
-        <v>98.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="F38" t="n">
-        <v>1176.7347</v>
+        <v>348.5743</v>
       </c>
       <c r="G38" t="n">
-        <v>99.65000000000002</v>
+        <v>-74661.3298407767</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>98.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="C39" t="n">
-        <v>98.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D39" t="n">
-        <v>98.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="E39" t="n">
-        <v>98.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0001</v>
+        <v>70093.6724</v>
       </c>
       <c r="G39" t="n">
-        <v>99.54500000000003</v>
+        <v>-144755.0022407767</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>98.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="C40" t="n">
-        <v>98.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="D40" t="n">
-        <v>98.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="E40" t="n">
-        <v>98.90000000000001</v>
+        <v>101</v>
       </c>
       <c r="F40" t="n">
-        <v>99</v>
+        <v>3710.3539</v>
       </c>
       <c r="G40" t="n">
-        <v>99.44000000000003</v>
+        <v>-141044.6483407767</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>98.8</v>
+        <v>101</v>
       </c>
       <c r="C41" t="n">
-        <v>98.8</v>
+        <v>101</v>
       </c>
       <c r="D41" t="n">
-        <v>98.8</v>
+        <v>101</v>
       </c>
       <c r="E41" t="n">
-        <v>98.8</v>
+        <v>101</v>
       </c>
       <c r="F41" t="n">
-        <v>4400</v>
+        <v>4574.9228</v>
       </c>
       <c r="G41" t="n">
-        <v>99.38000000000004</v>
+        <v>-141044.6483407767</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>98.59999999999999</v>
+        <v>101</v>
       </c>
       <c r="C42" t="n">
-        <v>98.59999999999999</v>
+        <v>101</v>
       </c>
       <c r="D42" t="n">
-        <v>98.59999999999999</v>
+        <v>101</v>
       </c>
       <c r="E42" t="n">
-        <v>98.59999999999999</v>
+        <v>101</v>
       </c>
       <c r="F42" t="n">
-        <v>2000</v>
+        <v>2590.158</v>
       </c>
       <c r="G42" t="n">
-        <v>99.31000000000003</v>
+        <v>-141044.6483407767</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>98.59999999999999</v>
+        <v>101</v>
       </c>
       <c r="C43" t="n">
-        <v>98.59999999999999</v>
+        <v>101</v>
       </c>
       <c r="D43" t="n">
-        <v>98.59999999999999</v>
+        <v>101</v>
       </c>
       <c r="E43" t="n">
-        <v>98.59999999999999</v>
+        <v>101</v>
       </c>
       <c r="F43" t="n">
-        <v>386.9239</v>
+        <v>9968.531499999999</v>
       </c>
       <c r="G43" t="n">
-        <v>99.24000000000004</v>
+        <v>-141044.6483407767</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>98.59999999999999</v>
+        <v>102</v>
       </c>
       <c r="C44" t="n">
-        <v>98.5</v>
+        <v>102</v>
       </c>
       <c r="D44" t="n">
-        <v>98.59999999999999</v>
+        <v>102</v>
       </c>
       <c r="E44" t="n">
-        <v>98.5</v>
+        <v>102</v>
       </c>
       <c r="F44" t="n">
-        <v>3150</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>99.17000000000003</v>
+        <v>-141043.6483407767</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="C45" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="D45" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="E45" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="F45" t="n">
-        <v>10.957</v>
+        <v>295.4554</v>
       </c>
       <c r="G45" t="n">
-        <v>99.09500000000003</v>
+        <v>-141339.1037407767</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="C46" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="D46" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="E46" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="F46" t="n">
-        <v>1490.4263</v>
+        <v>1034.5956</v>
       </c>
       <c r="G46" t="n">
-        <v>99.03000000000003</v>
+        <v>-141339.1037407767</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="C47" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="D47" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="E47" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="F47" t="n">
-        <v>1341.3837</v>
+        <v>8848.35</v>
       </c>
       <c r="G47" t="n">
-        <v>98.97000000000001</v>
+        <v>-141339.1037407767</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="C48" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="D48" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="E48" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="F48" t="n">
-        <v>62.5728</v>
+        <v>6540</v>
       </c>
       <c r="G48" t="n">
-        <v>98.93000000000004</v>
+        <v>-141339.1037407767</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="C49" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="D49" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="E49" t="n">
-        <v>98.5</v>
+        <v>101</v>
       </c>
       <c r="F49" t="n">
-        <v>541.0495</v>
+        <v>2102.3217</v>
       </c>
       <c r="G49" t="n">
-        <v>98.86500000000002</v>
+        <v>-141339.1037407767</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>98.5</v>
+        <v>100</v>
       </c>
       <c r="C50" t="n">
-        <v>98.5</v>
+        <v>100</v>
       </c>
       <c r="D50" t="n">
-        <v>98.5</v>
+        <v>100</v>
       </c>
       <c r="E50" t="n">
-        <v>98.5</v>
+        <v>100</v>
       </c>
       <c r="F50" t="n">
-        <v>9186.981</v>
+        <v>4100</v>
       </c>
       <c r="G50" t="n">
-        <v>98.82500000000002</v>
+        <v>-145439.1037407767</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="C51" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="D51" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="E51" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="F51" t="n">
-        <v>4300</v>
+        <v>445.5313</v>
       </c>
       <c r="G51" t="n">
-        <v>98.78500000000001</v>
+        <v>-145439.1037407767</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>98.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="C52" t="n">
-        <v>98.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="D52" t="n">
-        <v>98.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="E52" t="n">
-        <v>98.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="F52" t="n">
-        <v>150.8737</v>
+        <v>2494.5685</v>
       </c>
       <c r="G52" t="n">
-        <v>98.77500000000002</v>
+        <v>-145439.1037407767</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="C53" t="n">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="D53" t="n">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="E53" t="n">
-        <v>99.2</v>
+        <v>100</v>
       </c>
       <c r="F53" t="n">
-        <v>1000</v>
+        <v>4705.8045</v>
       </c>
       <c r="G53" t="n">
-        <v>98.78000000000002</v>
+        <v>-145439.1037407767</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>98.8</v>
+        <v>100</v>
       </c>
       <c r="C54" t="n">
-        <v>98.8</v>
+        <v>100</v>
       </c>
       <c r="D54" t="n">
-        <v>98.8</v>
+        <v>100</v>
       </c>
       <c r="E54" t="n">
-        <v>98.8</v>
+        <v>100</v>
       </c>
       <c r="F54" t="n">
-        <v>100</v>
+        <v>23364.9751</v>
       </c>
       <c r="G54" t="n">
-        <v>98.77000000000002</v>
+        <v>-145439.1037407767</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>98.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="C55" t="n">
-        <v>98.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="D55" t="n">
-        <v>98.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="E55" t="n">
-        <v>98.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="F55" t="n">
-        <v>1000</v>
+        <v>2341.6973</v>
       </c>
       <c r="G55" t="n">
-        <v>98.72500000000004</v>
+        <v>-147780.8010407767</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>98.7</v>
+        <v>99.7</v>
       </c>
       <c r="C56" t="n">
-        <v>98.7</v>
+        <v>99.3</v>
       </c>
       <c r="D56" t="n">
-        <v>98.7</v>
+        <v>99.7</v>
       </c>
       <c r="E56" t="n">
-        <v>98.7</v>
+        <v>99.3</v>
       </c>
       <c r="F56" t="n">
-        <v>100</v>
+        <v>599.9131</v>
       </c>
       <c r="G56" t="n">
-        <v>98.71000000000004</v>
+        <v>-148380.7141407767</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>98.7</v>
+        <v>99.3</v>
       </c>
       <c r="C57" t="n">
-        <v>98.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>98.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>98.7</v>
+        <v>99.2</v>
       </c>
       <c r="F57" t="n">
-        <v>1016.2816</v>
+        <v>2587.6584</v>
       </c>
       <c r="G57" t="n">
-        <v>98.69500000000002</v>
+        <v>-145793.0557407767</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>99.2</v>
+        <v>99.8</v>
       </c>
       <c r="C58" t="n">
-        <v>99.2</v>
+        <v>99.8</v>
       </c>
       <c r="D58" t="n">
-        <v>99.2</v>
+        <v>99.8</v>
       </c>
       <c r="E58" t="n">
-        <v>99.2</v>
+        <v>99.8</v>
       </c>
       <c r="F58" t="n">
-        <v>411.7552</v>
+        <v>1002.004</v>
       </c>
       <c r="G58" t="n">
-        <v>98.70500000000001</v>
+        <v>-146795.0597407767</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>98.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="C59" t="n">
-        <v>98.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="D59" t="n">
-        <v>98.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="E59" t="n">
-        <v>98.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="F59" t="n">
-        <v>3119.5017</v>
+        <v>956.6968000000001</v>
       </c>
       <c r="G59" t="n">
-        <v>98.70500000000001</v>
+        <v>-147751.7565407767</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F60" t="n">
-        <v>944.9198</v>
+        <v>473.037</v>
       </c>
       <c r="G60" t="n">
-        <v>98.73000000000002</v>
+        <v>-148224.7935407767</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>99.40000000000001</v>
+        <v>99</v>
       </c>
       <c r="D61" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>99.40000000000001</v>
+        <v>99</v>
       </c>
       <c r="F61" t="n">
-        <v>19.1156</v>
+        <v>13750</v>
       </c>
       <c r="G61" t="n">
-        <v>98.76000000000002</v>
+        <v>-161974.7935407767</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>99.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>99.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>500.3186</v>
+        <v>475.8118</v>
       </c>
       <c r="G62" t="n">
-        <v>98.80000000000003</v>
+        <v>-161498.9817407767</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="C63" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="D63" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="E63" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="F63" t="n">
-        <v>485.7831</v>
+        <v>4044.9999</v>
       </c>
       <c r="G63" t="n">
-        <v>98.82500000000002</v>
+        <v>-165543.9816407767</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="C64" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="D64" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="E64" t="n">
-        <v>99.5</v>
+        <v>99.8</v>
       </c>
       <c r="F64" t="n">
-        <v>966.7767</v>
+        <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>98.87000000000003</v>
+        <v>-165533.9816407767</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="C65" t="n">
         <v>99</v>
       </c>
       <c r="D65" t="n">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="E65" t="n">
         <v>99</v>
       </c>
       <c r="F65" t="n">
-        <v>1312.4957</v>
+        <v>4559.9112</v>
       </c>
       <c r="G65" t="n">
-        <v>98.92000000000003</v>
+        <v>-170093.8928407767</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>99.3</v>
+        <v>99</v>
       </c>
       <c r="C66" t="n">
-        <v>99.3</v>
+        <v>99</v>
       </c>
       <c r="D66" t="n">
-        <v>99.3</v>
+        <v>99</v>
       </c>
       <c r="E66" t="n">
-        <v>99.3</v>
+        <v>99</v>
       </c>
       <c r="F66" t="n">
-        <v>644.1562</v>
+        <v>29.4117</v>
       </c>
       <c r="G66" t="n">
-        <v>98.96000000000004</v>
+        <v>-170093.8928407767</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>99.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="C67" t="n">
-        <v>99.90000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="E67" t="n">
-        <v>99.90000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F67" t="n">
-        <v>1211</v>
+        <v>1176.7347</v>
       </c>
       <c r="G67" t="n">
-        <v>99.03000000000004</v>
+        <v>-171270.6275407767</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>100</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>100</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>100</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>100</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>3836.5839</v>
+        <v>0.0001</v>
       </c>
       <c r="G68" t="n">
-        <v>99.10500000000005</v>
+        <v>-171270.6275407767</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>203.9176</v>
+        <v>99</v>
       </c>
       <c r="G69" t="n">
-        <v>99.13500000000003</v>
+        <v>-171270.6275407767</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>100</v>
+        <v>98.8</v>
       </c>
       <c r="C70" t="n">
-        <v>101</v>
+        <v>98.8</v>
       </c>
       <c r="D70" t="n">
-        <v>101</v>
+        <v>98.8</v>
       </c>
       <c r="E70" t="n">
-        <v>100</v>
+        <v>98.8</v>
       </c>
       <c r="F70" t="n">
-        <v>449.3348</v>
+        <v>4400</v>
       </c>
       <c r="G70" t="n">
-        <v>99.21000000000004</v>
+        <v>-175670.6275407767</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>101</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>101</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>101</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>101</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F71" t="n">
-        <v>15750</v>
+        <v>2000</v>
       </c>
       <c r="G71" t="n">
-        <v>99.34500000000004</v>
+        <v>-177670.6275407767</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>101</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>101</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>101</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>101</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>1414.997</v>
+        <v>386.9239</v>
       </c>
       <c r="G72" t="n">
-        <v>99.45000000000002</v>
+        <v>-177670.6275407767</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>100</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>99.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="D73" t="n">
-        <v>100</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>99.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="F73" t="n">
-        <v>560.8896</v>
+        <v>3150</v>
       </c>
       <c r="G73" t="n">
-        <v>99.49000000000002</v>
+        <v>-180820.6275407767</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>101</v>
+        <v>98.5</v>
       </c>
       <c r="C74" t="n">
-        <v>101</v>
+        <v>98.5</v>
       </c>
       <c r="D74" t="n">
-        <v>101</v>
+        <v>98.5</v>
       </c>
       <c r="E74" t="n">
-        <v>101</v>
+        <v>98.5</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>10.957</v>
       </c>
       <c r="G74" t="n">
-        <v>99.60000000000001</v>
+        <v>-180820.6275407767</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>101</v>
+        <v>98.5</v>
       </c>
       <c r="C75" t="n">
-        <v>101</v>
+        <v>98.5</v>
       </c>
       <c r="D75" t="n">
-        <v>101</v>
+        <v>98.5</v>
       </c>
       <c r="E75" t="n">
-        <v>101</v>
+        <v>98.5</v>
       </c>
       <c r="F75" t="n">
-        <v>353.2277</v>
+        <v>1490.4263</v>
       </c>
       <c r="G75" t="n">
-        <v>99.705</v>
+        <v>-180820.6275407767</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>101</v>
+        <v>98.5</v>
       </c>
       <c r="C76" t="n">
-        <v>101</v>
+        <v>98.5</v>
       </c>
       <c r="D76" t="n">
-        <v>101</v>
+        <v>98.5</v>
       </c>
       <c r="E76" t="n">
-        <v>101</v>
+        <v>98.5</v>
       </c>
       <c r="F76" t="n">
-        <v>10</v>
+        <v>1341.3837</v>
       </c>
       <c r="G76" t="n">
-        <v>99.81999999999999</v>
+        <v>-180820.6275407767</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="C77" t="n">
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="D77" t="n">
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="E77" t="n">
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="F77" t="n">
-        <v>964.066</v>
+        <v>62.5728</v>
       </c>
       <c r="G77" t="n">
-        <v>99.88499999999998</v>
+        <v>-180820.6275407767</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="C78" t="n">
-        <v>99.90000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="D78" t="n">
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="E78" t="n">
-        <v>99.90000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="F78" t="n">
-        <v>2280.1589</v>
+        <v>541.0495</v>
       </c>
       <c r="G78" t="n">
-        <v>99.92499999999998</v>
+        <v>-180820.6275407767</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>99.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="C79" t="n">
-        <v>99.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="D79" t="n">
-        <v>99.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="E79" t="n">
-        <v>99.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="F79" t="n">
-        <v>395.224</v>
+        <v>9186.981</v>
       </c>
       <c r="G79" t="n">
-        <v>99.95999999999999</v>
+        <v>-180820.6275407767</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>99.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="C80" t="n">
-        <v>99.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="D80" t="n">
-        <v>99.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="E80" t="n">
-        <v>99.09999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="F80" t="n">
-        <v>8186.2892</v>
+        <v>4300</v>
       </c>
       <c r="G80" t="n">
-        <v>99.94499999999998</v>
+        <v>-185120.6275407767</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C81" t="n">
         <v>98.90000000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E81" t="n">
         <v>98.90000000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>490.0592</v>
+        <v>150.8737</v>
       </c>
       <c r="G81" t="n">
-        <v>99.92999999999998</v>
+        <v>-184969.7538407767</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>98.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="C82" t="n">
-        <v>98.3</v>
+        <v>99.2</v>
       </c>
       <c r="D82" t="n">
-        <v>98.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="E82" t="n">
-        <v>98.3</v>
+        <v>99.2</v>
       </c>
       <c r="F82" t="n">
-        <v>11349.1998</v>
+        <v>1000</v>
       </c>
       <c r="G82" t="n">
-        <v>99.90499999999997</v>
+        <v>-183969.7538407767</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>98.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="C83" t="n">
-        <v>98.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="D83" t="n">
-        <v>98.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="E83" t="n">
-        <v>98.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="F83" t="n">
-        <v>1423.192</v>
+        <v>100</v>
       </c>
       <c r="G83" t="n">
-        <v>99.86999999999998</v>
+        <v>-184069.7538407767</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>98.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>98.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>98.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>98.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>18184.4581</v>
+        <v>1000</v>
       </c>
       <c r="G84" t="n">
-        <v>99.80999999999999</v>
+        <v>-183069.7538407767</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>98.3</v>
+        <v>98.7</v>
       </c>
       <c r="C85" t="n">
-        <v>98.3</v>
+        <v>98.7</v>
       </c>
       <c r="D85" t="n">
-        <v>98.3</v>
+        <v>98.7</v>
       </c>
       <c r="E85" t="n">
-        <v>98.3</v>
+        <v>98.7</v>
       </c>
       <c r="F85" t="n">
-        <v>4566.6215</v>
+        <v>100</v>
       </c>
       <c r="G85" t="n">
-        <v>99.75</v>
+        <v>-183169.7538407767</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,35 +3462,31 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>98.2</v>
+        <v>98.7</v>
       </c>
       <c r="C86" t="n">
-        <v>98.2</v>
+        <v>98.7</v>
       </c>
       <c r="D86" t="n">
-        <v>98.2</v>
+        <v>98.7</v>
       </c>
       <c r="E86" t="n">
-        <v>98.2</v>
+        <v>98.7</v>
       </c>
       <c r="F86" t="n">
-        <v>2071.2779</v>
+        <v>1016.2816</v>
       </c>
       <c r="G86" t="n">
-        <v>99.69499999999999</v>
+        <v>-183169.7538407767</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K86" t="n">
-        <v>98.3</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
@@ -3502,1274 +3498,1088 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="C87" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="D87" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="E87" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="F87" t="n">
+        <v>411.7552</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-182757.9986407767</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="C88" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="D88" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="E88" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F88" t="n">
+        <v>3119.5017</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-185877.5003407767</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C89" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="D89" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="E89" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="F89" t="n">
+        <v>944.9198</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-184932.5805407767</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C90" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="D90" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="E90" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="F90" t="n">
+        <v>19.1156</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-184932.5805407767</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C91" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="D91" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="E91" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="F91" t="n">
+        <v>500.3186</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-185432.8991407767</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C92" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="D92" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E92" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F92" t="n">
+        <v>485.7831</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-185918.6822407767</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="C93" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="D93" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="E93" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="F93" t="n">
+        <v>966.7767</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-184951.9055407767</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="C94" t="n">
+        <v>99</v>
+      </c>
+      <c r="D94" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="E94" t="n">
+        <v>99</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1312.4957</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-186264.4012407767</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="C95" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="E95" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="F95" t="n">
+        <v>644.1562</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-185620.2450407767</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C96" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D96" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E96" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1211</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-184409.2450407767</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>100</v>
+      </c>
+      <c r="C97" t="n">
+        <v>100</v>
+      </c>
+      <c r="D97" t="n">
+        <v>100</v>
+      </c>
+      <c r="E97" t="n">
+        <v>100</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3836.5839</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-180572.6611407767</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C98" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="D98" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E98" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F98" t="n">
+        <v>203.9176</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-180776.5787407767</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>100</v>
+      </c>
+      <c r="C99" t="n">
+        <v>101</v>
+      </c>
+      <c r="D99" t="n">
+        <v>101</v>
+      </c>
+      <c r="E99" t="n">
+        <v>100</v>
+      </c>
+      <c r="F99" t="n">
+        <v>449.3348</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-180327.2439407767</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>101</v>
+      </c>
+      <c r="C100" t="n">
+        <v>101</v>
+      </c>
+      <c r="D100" t="n">
+        <v>101</v>
+      </c>
+      <c r="E100" t="n">
+        <v>101</v>
+      </c>
+      <c r="F100" t="n">
+        <v>15750</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-180327.2439407767</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>101</v>
+      </c>
+      <c r="C101" t="n">
+        <v>101</v>
+      </c>
+      <c r="D101" t="n">
+        <v>101</v>
+      </c>
+      <c r="E101" t="n">
+        <v>101</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1414.997</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-180327.2439407767</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="D102" t="n">
+        <v>100</v>
+      </c>
+      <c r="E102" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F102" t="n">
+        <v>560.8896</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-180888.1335407767</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="n">
+        <v>101</v>
+      </c>
+      <c r="E103" t="n">
+        <v>101</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-180887.1335407767</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>101</v>
+      </c>
+      <c r="C104" t="n">
+        <v>101</v>
+      </c>
+      <c r="D104" t="n">
+        <v>101</v>
+      </c>
+      <c r="E104" t="n">
+        <v>101</v>
+      </c>
+      <c r="F104" t="n">
+        <v>353.2277</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-180887.1335407767</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>101</v>
+      </c>
+      <c r="C105" t="n">
+        <v>101</v>
+      </c>
+      <c r="D105" t="n">
+        <v>101</v>
+      </c>
+      <c r="E105" t="n">
+        <v>101</v>
+      </c>
+      <c r="F105" t="n">
+        <v>10</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-180887.1335407767</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>100</v>
+      </c>
+      <c r="C106" t="n">
+        <v>100</v>
+      </c>
+      <c r="D106" t="n">
+        <v>100</v>
+      </c>
+      <c r="E106" t="n">
+        <v>100</v>
+      </c>
+      <c r="F106" t="n">
+        <v>964.066</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-181851.1995407767</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>100</v>
+      </c>
+      <c r="C107" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D107" t="n">
+        <v>100</v>
+      </c>
+      <c r="E107" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2280.1589</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-184131.3584407767</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C108" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="D108" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E108" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F108" t="n">
+        <v>395.224</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-184526.5824407767</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C109" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="D109" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E109" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F109" t="n">
+        <v>8186.2892</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-192712.8716407767</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C110" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="D110" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E110" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F110" t="n">
+        <v>490.0592</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-193202.9308407767</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="C111" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="D111" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="E111" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="F111" t="n">
+        <v>11349.1998</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-204552.1306407767</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="C112" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="D112" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="E112" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1423.192</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-203128.9386407767</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="C113" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="D113" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="E113" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="F113" t="n">
+        <v>18184.4581</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-221313.3967407767</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="C114" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="D114" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="E114" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="F114" t="n">
+        <v>4566.6215</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-221313.3967407767</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
         <v>98.2</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C115" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="D115" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="E115" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2071.2779</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-223384.6746407766</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K115" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="C116" t="n">
         <v>97.8</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D116" t="n">
         <v>98.2</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E116" t="n">
         <v>97.8</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F116" t="n">
         <v>5569.6258</v>
       </c>
-      <c r="G87" t="n">
-        <v>99.60999999999999</v>
-      </c>
-      <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
+      <c r="G116" t="n">
+        <v>-228954.3004407767</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
         <v>98.2</v>
       </c>
-      <c r="K87" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L87" t="inlineStr">
+      <c r="K116" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L116" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="C88" t="n">
-        <v>97.7</v>
-      </c>
-      <c r="D88" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="E88" t="n">
-        <v>97.7</v>
-      </c>
-      <c r="F88" t="n">
-        <v>1147.1342</v>
-      </c>
-      <c r="G88" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="K88" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="C89" t="n">
-        <v>100</v>
-      </c>
-      <c r="D89" t="n">
-        <v>106</v>
-      </c>
-      <c r="E89" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="F89" t="n">
-        <v>147959.8166018868</v>
-      </c>
-      <c r="G89" t="n">
-        <v>99.52500000000001</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
-        <v>97.7</v>
-      </c>
-      <c r="K89" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>104</v>
-      </c>
-      <c r="C90" t="n">
-        <v>104</v>
-      </c>
-      <c r="D90" t="n">
-        <v>104</v>
-      </c>
-      <c r="E90" t="n">
-        <v>104</v>
-      </c>
-      <c r="F90" t="n">
-        <v>463.9672</v>
-      </c>
-      <c r="G90" t="n">
-        <v>99.72499999999999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>102</v>
-      </c>
-      <c r="C91" t="n">
-        <v>103</v>
-      </c>
-      <c r="D91" t="n">
-        <v>103</v>
-      </c>
-      <c r="E91" t="n">
-        <v>102</v>
-      </c>
-      <c r="F91" t="n">
-        <v>11704.1263</v>
-      </c>
-      <c r="G91" t="n">
-        <v>99.77500000000001</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>103</v>
-      </c>
-      <c r="C92" t="n">
-        <v>103</v>
-      </c>
-      <c r="D92" t="n">
-        <v>103</v>
-      </c>
-      <c r="E92" t="n">
-        <v>103</v>
-      </c>
-      <c r="F92" t="n">
-        <v>368.1988</v>
-      </c>
-      <c r="G92" t="n">
-        <v>99.875</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>103</v>
-      </c>
-      <c r="C93" t="n">
-        <v>103</v>
-      </c>
-      <c r="D93" t="n">
-        <v>103</v>
-      </c>
-      <c r="E93" t="n">
-        <v>103</v>
-      </c>
-      <c r="F93" t="n">
-        <v>5900</v>
-      </c>
-      <c r="G93" t="n">
-        <v>100.025</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>104</v>
-      </c>
-      <c r="C94" t="n">
-        <v>103</v>
-      </c>
-      <c r="D94" t="n">
-        <v>104</v>
-      </c>
-      <c r="E94" t="n">
-        <v>103</v>
-      </c>
-      <c r="F94" t="n">
-        <v>774.3441</v>
-      </c>
-      <c r="G94" t="n">
-        <v>100.175</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>103</v>
-      </c>
-      <c r="C95" t="n">
-        <v>102</v>
-      </c>
-      <c r="D95" t="n">
-        <v>104</v>
-      </c>
-      <c r="E95" t="n">
-        <v>102</v>
-      </c>
-      <c r="F95" t="n">
-        <v>6670.8124</v>
-      </c>
-      <c r="G95" t="n">
-        <v>100.275</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>102</v>
-      </c>
-      <c r="C96" t="n">
-        <v>102</v>
-      </c>
-      <c r="D96" t="n">
-        <v>102</v>
-      </c>
-      <c r="E96" t="n">
-        <v>102</v>
-      </c>
-      <c r="F96" t="n">
-        <v>391.7612</v>
-      </c>
-      <c r="G96" t="n">
-        <v>100.325</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>102</v>
-      </c>
-      <c r="C97" t="n">
-        <v>101</v>
-      </c>
-      <c r="D97" t="n">
-        <v>102</v>
-      </c>
-      <c r="E97" t="n">
-        <v>101</v>
-      </c>
-      <c r="F97" t="n">
-        <v>11468.3706</v>
-      </c>
-      <c r="G97" t="n">
-        <v>100.425</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>101</v>
-      </c>
-      <c r="C98" t="n">
-        <v>101</v>
-      </c>
-      <c r="D98" t="n">
-        <v>101</v>
-      </c>
-      <c r="E98" t="n">
-        <v>101</v>
-      </c>
-      <c r="F98" t="n">
-        <v>3718.8652</v>
-      </c>
-      <c r="G98" t="n">
-        <v>100.475</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="C99" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="D99" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="E99" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="F99" t="n">
-        <v>4219.3429</v>
-      </c>
-      <c r="G99" t="n">
-        <v>100.485</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="C100" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="D100" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="E100" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="F100" t="n">
-        <v>108.256</v>
-      </c>
-      <c r="G100" t="n">
-        <v>100.52</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="C101" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="D101" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="E101" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="F101" t="n">
-        <v>458.7407</v>
-      </c>
-      <c r="G101" t="n">
-        <v>100.53</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>99</v>
-      </c>
-      <c r="C102" t="n">
-        <v>99</v>
-      </c>
-      <c r="D102" t="n">
-        <v>99</v>
-      </c>
-      <c r="E102" t="n">
-        <v>99</v>
-      </c>
-      <c r="F102" t="n">
-        <v>309.9174</v>
-      </c>
-      <c r="G102" t="n">
-        <v>100.535</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="C103" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="D103" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="E103" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1297.4471</v>
-      </c>
-      <c r="G103" t="n">
-        <v>100.53</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="C104" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="D104" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="E104" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="F104" t="n">
-        <v>190.5322</v>
-      </c>
-      <c r="G104" t="n">
-        <v>100.5300000000001</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K104" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="C105" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="D105" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="E105" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="F105" t="n">
-        <v>959.5974</v>
-      </c>
-      <c r="G105" t="n">
-        <v>100.5300000000001</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K105" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="C106" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="D106" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="E106" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="F106" t="n">
-        <v>10</v>
-      </c>
-      <c r="G106" t="n">
-        <v>100.5800000000001</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K106" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="C107" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="D107" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="E107" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="F107" t="n">
-        <v>1036.5583</v>
-      </c>
-      <c r="G107" t="n">
-        <v>100.64</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>99</v>
-      </c>
-      <c r="C108" t="n">
-        <v>99</v>
-      </c>
-      <c r="D108" t="n">
-        <v>99</v>
-      </c>
-      <c r="E108" t="n">
-        <v>99</v>
-      </c>
-      <c r="F108" t="n">
-        <v>827.341</v>
-      </c>
-      <c r="G108" t="n">
-        <v>100.7000000000001</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="C109" t="n">
-        <v>99</v>
-      </c>
-      <c r="D109" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="E109" t="n">
-        <v>99</v>
-      </c>
-      <c r="F109" t="n">
-        <v>1010</v>
-      </c>
-      <c r="G109" t="n">
-        <v>100.6850000000001</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>99</v>
-      </c>
-      <c r="C110" t="n">
-        <v>99</v>
-      </c>
-      <c r="D110" t="n">
-        <v>99</v>
-      </c>
-      <c r="E110" t="n">
-        <v>99</v>
-      </c>
-      <c r="F110" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G110" t="n">
-        <v>100.4350000000001</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>99</v>
-      </c>
-      <c r="K110" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="C111" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="D111" t="n">
-        <v>99.5</v>
-      </c>
-      <c r="E111" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="F111" t="n">
-        <v>2584.0708</v>
-      </c>
-      <c r="G111" t="n">
-        <v>100.3000000000001</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="C112" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="D112" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="E112" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="F112" t="n">
-        <v>339.9544</v>
-      </c>
-      <c r="G112" t="n">
-        <v>100.1400000000001</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="K112" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="C113" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="D113" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="E113" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="F113" t="n">
-        <v>714</v>
-      </c>
-      <c r="G113" t="n">
-        <v>99.98000000000009</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="C114" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="D114" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="E114" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="F114" t="n">
-        <v>353.5605</v>
-      </c>
-      <c r="G114" t="n">
-        <v>99.7700000000001</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="C115" t="n">
-        <v>100</v>
-      </c>
-      <c r="D115" t="n">
-        <v>100</v>
-      </c>
-      <c r="E115" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1698.0946</v>
-      </c>
-      <c r="G115" t="n">
-        <v>99.6100000000001</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="K115" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>100</v>
-      </c>
-      <c r="C116" t="n">
-        <v>100</v>
-      </c>
-      <c r="D116" t="n">
-        <v>100</v>
-      </c>
-      <c r="E116" t="n">
-        <v>100</v>
-      </c>
-      <c r="F116" t="n">
-        <v>5395.2933</v>
-      </c>
-      <c r="G116" t="n">
-        <v>99.5100000000001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4780,22 +4590,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>101</v>
+        <v>97.8</v>
       </c>
       <c r="C117" t="n">
-        <v>101</v>
+        <v>97.7</v>
       </c>
       <c r="D117" t="n">
-        <v>101</v>
+        <v>97.8</v>
       </c>
       <c r="E117" t="n">
-        <v>101</v>
+        <v>97.7</v>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>1147.1342</v>
       </c>
       <c r="G117" t="n">
-        <v>99.46000000000011</v>
+        <v>-230101.4346407767</v>
       </c>
       <c r="H117" t="n">
         <v>1</v>
@@ -4804,7 +4614,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>100</v>
+        <v>97.8</v>
       </c>
       <c r="K117" t="n">
         <v>98.3</v>
@@ -4824,22 +4634,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>101</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D118" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E118" t="n">
-        <v>101</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F118" t="n">
-        <v>8074</v>
+        <v>147959.8166018868</v>
       </c>
       <c r="G118" t="n">
-        <v>99.46000000000011</v>
+        <v>-82141.61803888986</v>
       </c>
       <c r="H118" t="n">
         <v>1</v>
@@ -4848,7 +4658,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>101</v>
+        <v>97.7</v>
       </c>
       <c r="K118" t="n">
         <v>98.3</v>
@@ -4868,22 +4678,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C119" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D119" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E119" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F119" t="n">
-        <v>251.924</v>
+        <v>463.9672</v>
       </c>
       <c r="G119" t="n">
-        <v>99.47000000000011</v>
+        <v>-81677.65083888987</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4910,32 +4720,30 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C120" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D120" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E120" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>11704.1263</v>
       </c>
       <c r="G120" t="n">
-        <v>99.53000000000011</v>
+        <v>-93381.77713888987</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>100</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
         <v>98.3</v>
       </c>
@@ -4954,32 +4762,30 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C121" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D121" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E121" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F121" t="n">
-        <v>48.076</v>
+        <v>368.1988</v>
       </c>
       <c r="G121" t="n">
-        <v>99.56500000000011</v>
+        <v>-93381.77713888987</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>101</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
         <v>98.3</v>
       </c>
@@ -4998,22 +4804,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C122" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D122" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E122" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>5900</v>
       </c>
       <c r="G122" t="n">
-        <v>99.66500000000011</v>
+        <v>-93381.77713888987</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5040,22 +4846,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>99.09999999999999</v>
+        <v>104</v>
       </c>
       <c r="C123" t="n">
-        <v>99.09999999999999</v>
+        <v>103</v>
       </c>
       <c r="D123" t="n">
-        <v>99.09999999999999</v>
+        <v>104</v>
       </c>
       <c r="E123" t="n">
-        <v>99.09999999999999</v>
+        <v>103</v>
       </c>
       <c r="F123" t="n">
-        <v>858.0895</v>
+        <v>774.3441</v>
       </c>
       <c r="G123" t="n">
-        <v>99.7050000000001</v>
+        <v>-93381.77713888987</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5082,22 +4888,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C124" t="n">
-        <v>99.2</v>
+        <v>102</v>
       </c>
       <c r="D124" t="n">
-        <v>99.2</v>
+        <v>104</v>
       </c>
       <c r="E124" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F124" t="n">
-        <v>3451</v>
+        <v>6670.8124</v>
       </c>
       <c r="G124" t="n">
-        <v>99.74000000000011</v>
+        <v>-100052.5895388899</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5124,22 +4930,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>99.8</v>
+        <v>102</v>
       </c>
       <c r="C125" t="n">
-        <v>99.8</v>
+        <v>102</v>
       </c>
       <c r="D125" t="n">
-        <v>99.8</v>
+        <v>102</v>
       </c>
       <c r="E125" t="n">
-        <v>99.8</v>
+        <v>102</v>
       </c>
       <c r="F125" t="n">
-        <v>471</v>
+        <v>391.7612</v>
       </c>
       <c r="G125" t="n">
-        <v>99.81500000000011</v>
+        <v>-100052.5895388899</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5166,22 +4972,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>99.7</v>
+        <v>102</v>
       </c>
       <c r="C126" t="n">
-        <v>99.7</v>
+        <v>101</v>
       </c>
       <c r="D126" t="n">
-        <v>99.7</v>
+        <v>102</v>
       </c>
       <c r="E126" t="n">
-        <v>99.7</v>
+        <v>101</v>
       </c>
       <c r="F126" t="n">
-        <v>455.0639</v>
+        <v>11468.3706</v>
       </c>
       <c r="G126" t="n">
-        <v>99.84000000000012</v>
+        <v>-111520.9601388899</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5208,22 +5014,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C127" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D127" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E127" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F127" t="n">
-        <v>393.0256</v>
+        <v>3718.8652</v>
       </c>
       <c r="G127" t="n">
-        <v>99.87000000000009</v>
+        <v>-111520.9601388899</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5250,22 +5056,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="C128" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="D128" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="E128" t="n">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="F128" t="n">
-        <v>4488.234</v>
+        <v>4219.3429</v>
       </c>
       <c r="G128" t="n">
-        <v>99.9200000000001</v>
+        <v>-115740.3030388899</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5292,22 +5098,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="C129" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="D129" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="E129" t="n">
-        <v>101</v>
+        <v>99.8</v>
       </c>
       <c r="F129" t="n">
-        <v>1</v>
+        <v>108.256</v>
       </c>
       <c r="G129" t="n">
-        <v>100.0050000000001</v>
+        <v>-115740.3030388899</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5334,22 +5140,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>101</v>
+        <v>99.3</v>
       </c>
       <c r="C130" t="n">
-        <v>102</v>
+        <v>99.3</v>
       </c>
       <c r="D130" t="n">
-        <v>102</v>
+        <v>99.3</v>
       </c>
       <c r="E130" t="n">
-        <v>101</v>
+        <v>99.3</v>
       </c>
       <c r="F130" t="n">
-        <v>5900</v>
+        <v>458.7407</v>
       </c>
       <c r="G130" t="n">
-        <v>100.1050000000001</v>
+        <v>-116199.0437388899</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5376,22 +5182,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C131" t="n">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D131" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E131" t="n">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F131" t="n">
-        <v>17452.485</v>
+        <v>309.9174</v>
       </c>
       <c r="G131" t="n">
-        <v>100.2900000000001</v>
+        <v>-116508.9611388899</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5418,22 +5224,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>104</v>
+        <v>98.3</v>
       </c>
       <c r="C132" t="n">
-        <v>105</v>
+        <v>98.2</v>
       </c>
       <c r="D132" t="n">
-        <v>106</v>
+        <v>98.3</v>
       </c>
       <c r="E132" t="n">
-        <v>103</v>
+        <v>98.2</v>
       </c>
       <c r="F132" t="n">
-        <v>52667.4471</v>
+        <v>1297.4471</v>
       </c>
       <c r="G132" t="n">
-        <v>100.5000000000001</v>
+        <v>-117806.4082388899</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5460,22 +5266,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>104</v>
+        <v>98.3</v>
       </c>
       <c r="C133" t="n">
-        <v>105</v>
+        <v>98.3</v>
       </c>
       <c r="D133" t="n">
-        <v>105</v>
+        <v>98.3</v>
       </c>
       <c r="E133" t="n">
-        <v>104</v>
+        <v>98.3</v>
       </c>
       <c r="F133" t="n">
-        <v>15732.8881</v>
+        <v>190.5322</v>
       </c>
       <c r="G133" t="n">
-        <v>100.7100000000001</v>
+        <v>-117615.8760388899</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5502,22 +5308,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>103</v>
+        <v>98.3</v>
       </c>
       <c r="C134" t="n">
-        <v>103</v>
+        <v>98.3</v>
       </c>
       <c r="D134" t="n">
-        <v>103</v>
+        <v>98.3</v>
       </c>
       <c r="E134" t="n">
-        <v>103</v>
+        <v>98.3</v>
       </c>
       <c r="F134" t="n">
-        <v>243.5041</v>
+        <v>959.5974</v>
       </c>
       <c r="G134" t="n">
-        <v>100.8700000000001</v>
+        <v>-117615.8760388899</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5539,6 +5345,1224 @@
       </c>
       <c r="N134" t="inlineStr"/>
     </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="C135" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="D135" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="E135" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="F135" t="n">
+        <v>10</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-117605.8760388899</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C136" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="D136" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="E136" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1036.5583</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-116569.3177388899</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>99</v>
+      </c>
+      <c r="C137" t="n">
+        <v>99</v>
+      </c>
+      <c r="D137" t="n">
+        <v>99</v>
+      </c>
+      <c r="E137" t="n">
+        <v>99</v>
+      </c>
+      <c r="F137" t="n">
+        <v>827.341</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-117396.6587388899</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="C138" t="n">
+        <v>99</v>
+      </c>
+      <c r="D138" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="E138" t="n">
+        <v>99</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1010</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-117396.6587388899</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>99</v>
+      </c>
+      <c r="C139" t="n">
+        <v>99</v>
+      </c>
+      <c r="D139" t="n">
+        <v>99</v>
+      </c>
+      <c r="E139" t="n">
+        <v>99</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-117396.6587388899</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="C140" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="D140" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="E140" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2584.0708</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-119980.7295388899</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="C141" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="D141" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="E141" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F141" t="n">
+        <v>339.9544</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-119640.7751388899</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="C142" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="D142" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="E142" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F142" t="n">
+        <v>714</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-119640.7751388899</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="C143" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="D143" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="E143" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F143" t="n">
+        <v>353.5605</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-119640.7751388899</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="C144" t="n">
+        <v>100</v>
+      </c>
+      <c r="D144" t="n">
+        <v>100</v>
+      </c>
+      <c r="E144" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1698.0946</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-117942.6805388899</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>100</v>
+      </c>
+      <c r="C145" t="n">
+        <v>100</v>
+      </c>
+      <c r="D145" t="n">
+        <v>100</v>
+      </c>
+      <c r="E145" t="n">
+        <v>100</v>
+      </c>
+      <c r="F145" t="n">
+        <v>5395.2933</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-117942.6805388899</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>101</v>
+      </c>
+      <c r="C146" t="n">
+        <v>101</v>
+      </c>
+      <c r="D146" t="n">
+        <v>101</v>
+      </c>
+      <c r="E146" t="n">
+        <v>101</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-117941.6805388899</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>101</v>
+      </c>
+      <c r="C147" t="n">
+        <v>101</v>
+      </c>
+      <c r="D147" t="n">
+        <v>101</v>
+      </c>
+      <c r="E147" t="n">
+        <v>101</v>
+      </c>
+      <c r="F147" t="n">
+        <v>8074</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-117941.6805388899</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>100</v>
+      </c>
+      <c r="C148" t="n">
+        <v>100</v>
+      </c>
+      <c r="D148" t="n">
+        <v>100</v>
+      </c>
+      <c r="E148" t="n">
+        <v>100</v>
+      </c>
+      <c r="F148" t="n">
+        <v>251.924</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-118193.6045388899</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>101</v>
+      </c>
+      <c r="C149" t="n">
+        <v>101</v>
+      </c>
+      <c r="D149" t="n">
+        <v>101</v>
+      </c>
+      <c r="E149" t="n">
+        <v>101</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-118192.6045388899</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>100</v>
+      </c>
+      <c r="C150" t="n">
+        <v>100</v>
+      </c>
+      <c r="D150" t="n">
+        <v>100</v>
+      </c>
+      <c r="E150" t="n">
+        <v>100</v>
+      </c>
+      <c r="F150" t="n">
+        <v>48.076</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-118240.6805388899</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>101</v>
+      </c>
+      <c r="C151" t="n">
+        <v>101</v>
+      </c>
+      <c r="D151" t="n">
+        <v>101</v>
+      </c>
+      <c r="E151" t="n">
+        <v>101</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-118239.6805388899</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C152" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="D152" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E152" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F152" t="n">
+        <v>858.0895</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-119097.7700388899</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>99</v>
+      </c>
+      <c r="C153" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="D153" t="n">
+        <v>99.2</v>
+      </c>
+      <c r="E153" t="n">
+        <v>99</v>
+      </c>
+      <c r="F153" t="n">
+        <v>3451</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-115646.7700388899</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="C154" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="D154" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="E154" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="F154" t="n">
+        <v>471</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-115175.7700388899</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="C155" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="D155" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="E155" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="F155" t="n">
+        <v>455.0639</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-115630.8339388899</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>100</v>
+      </c>
+      <c r="C156" t="n">
+        <v>100</v>
+      </c>
+      <c r="D156" t="n">
+        <v>100</v>
+      </c>
+      <c r="E156" t="n">
+        <v>100</v>
+      </c>
+      <c r="F156" t="n">
+        <v>393.0256</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-115237.8083388899</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>100</v>
+      </c>
+      <c r="C157" t="n">
+        <v>100</v>
+      </c>
+      <c r="D157" t="n">
+        <v>100</v>
+      </c>
+      <c r="E157" t="n">
+        <v>100</v>
+      </c>
+      <c r="F157" t="n">
+        <v>4488.234</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-115237.8083388899</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>101</v>
+      </c>
+      <c r="C158" t="n">
+        <v>101</v>
+      </c>
+      <c r="D158" t="n">
+        <v>101</v>
+      </c>
+      <c r="E158" t="n">
+        <v>101</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-115236.8083388899</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>101</v>
+      </c>
+      <c r="C159" t="n">
+        <v>102</v>
+      </c>
+      <c r="D159" t="n">
+        <v>102</v>
+      </c>
+      <c r="E159" t="n">
+        <v>101</v>
+      </c>
+      <c r="F159" t="n">
+        <v>5900</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-109336.8083388899</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>103</v>
+      </c>
+      <c r="C160" t="n">
+        <v>103</v>
+      </c>
+      <c r="D160" t="n">
+        <v>104</v>
+      </c>
+      <c r="E160" t="n">
+        <v>103</v>
+      </c>
+      <c r="F160" t="n">
+        <v>17452.485</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-91884.32333888987</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>104</v>
+      </c>
+      <c r="C161" t="n">
+        <v>105</v>
+      </c>
+      <c r="D161" t="n">
+        <v>106</v>
+      </c>
+      <c r="E161" t="n">
+        <v>103</v>
+      </c>
+      <c r="F161" t="n">
+        <v>52667.4471</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-39216.87623888987</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>104</v>
+      </c>
+      <c r="C162" t="n">
+        <v>105</v>
+      </c>
+      <c r="D162" t="n">
+        <v>105</v>
+      </c>
+      <c r="E162" t="n">
+        <v>104</v>
+      </c>
+      <c r="F162" t="n">
+        <v>15732.8881</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-39216.87623888987</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>103</v>
+      </c>
+      <c r="C163" t="n">
+        <v>103</v>
+      </c>
+      <c r="D163" t="n">
+        <v>103</v>
+      </c>
+      <c r="E163" t="n">
+        <v>103</v>
+      </c>
+      <c r="F163" t="n">
+        <v>243.5041</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-39460.38033888987</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-30 BackTest ELF.xlsx
+++ b/BackTest/2019-10-30 BackTest ELF.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N163"/>
+  <dimension ref="A1:M163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>-24519.9702407767</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>-34301.5773407767</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>-34110.5676407767</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>-58854.05794077671</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>-59854.05794077671</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -996,18 +946,15 @@
         <v>-59854.05794077671</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4452,18 +4114,19 @@
         <v>-221313.3967407767</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
+        <v>98.40000000000001</v>
+      </c>
+      <c r="J113" t="n">
+        <v>98.40000000000001</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4488,18 +4151,23 @@
         <v>-221313.3967407767</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+        <v>98.3</v>
+      </c>
+      <c r="J114" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4524,22 +4192,23 @@
         <v>-223384.6746407766</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>98.3</v>
       </c>
       <c r="J115" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K115" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4564,26 +4233,23 @@
         <v>-228954.3004407767</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>98.2</v>
       </c>
       <c r="J116" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="K116" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L116" t="inlineStr">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K116" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4608,26 +4274,23 @@
         <v>-230101.4346407767</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>97.8</v>
       </c>
       <c r="J117" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="K117" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L117" t="inlineStr">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4652,26 +4315,23 @@
         <v>-82141.61803888986</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>97.7</v>
       </c>
       <c r="J118" t="n">
-        <v>97.7</v>
-      </c>
-      <c r="K118" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L118" t="inlineStr">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4698,22 +4358,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L119" t="inlineStr">
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4740,22 +4397,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4782,22 +4436,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4824,22 +4475,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L122" t="inlineStr">
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4866,22 +4514,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L123" t="inlineStr">
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4908,22 +4553,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4948,24 +4590,23 @@
         <v>-100052.5895388899</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L125" t="inlineStr">
+        <v>102</v>
+      </c>
+      <c r="J125" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4990,24 +4631,23 @@
         <v>-111520.9601388899</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L126" t="inlineStr">
+        <v>102</v>
+      </c>
+      <c r="J126" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5034,22 +4674,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5076,22 +4713,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L128" t="inlineStr">
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5118,22 +4752,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L129" t="inlineStr">
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5160,22 +4791,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L130" t="inlineStr">
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5202,22 +4830,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L131" t="inlineStr">
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5244,22 +4869,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L132" t="inlineStr">
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5286,22 +4908,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L133" t="inlineStr">
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5328,22 +4947,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L134" t="inlineStr">
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5370,22 +4986,19 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L135" t="inlineStr">
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5412,22 +5025,19 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L136" t="inlineStr">
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5454,22 +5064,19 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L137" t="inlineStr">
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5496,22 +5103,19 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L138" t="inlineStr">
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5538,22 +5142,19 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L139" t="inlineStr">
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5580,22 +5181,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L140" t="inlineStr">
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5622,22 +5220,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L141" t="inlineStr">
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5664,22 +5259,19 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L142" t="inlineStr">
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5706,22 +5298,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L143" t="inlineStr">
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5748,22 +5337,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L144" t="inlineStr">
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5790,22 +5376,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L145" t="inlineStr">
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5832,22 +5415,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L146" t="inlineStr">
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5874,22 +5454,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L147" t="inlineStr">
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5916,22 +5493,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L148" t="inlineStr">
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5958,22 +5532,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L149" t="inlineStr">
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6000,22 +5571,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L150" t="inlineStr">
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6042,22 +5610,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L151" t="inlineStr">
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6084,22 +5649,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L152" t="inlineStr">
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6126,22 +5688,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L153" t="inlineStr">
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6168,22 +5727,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L154" t="inlineStr">
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6210,22 +5766,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L155" t="inlineStr">
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6252,22 +5805,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L156" t="inlineStr">
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6294,22 +5844,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L157" t="inlineStr">
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6336,22 +5883,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L158" t="inlineStr">
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6378,22 +5922,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L159" t="inlineStr">
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6420,22 +5961,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L160" t="inlineStr">
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6462,22 +6000,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L161" t="inlineStr">
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6504,22 +6039,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L162" t="inlineStr">
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6544,26 +6076,23 @@
         <v>-39460.38033888987</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="L163" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest ELF.xlsx
+++ b/BackTest/2019-10-30 BackTest ELF.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-25913.2650407767</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-24519.9702407767</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-24519.9702407767</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-34301.5773407767</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-34110.5676407767</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-58854.05794077671</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-59854.05794077671</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-59854.05794077671</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-58460.7631407767</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-58460.7631407767</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-70684.7631407767</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-70684.7631407767</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-70683.7631407767</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-72996.3699407767</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-59906.5783407767</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-59906.5783407767</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-59906.5783407767</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-73520.8225407767</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-72855.01624077671</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-72855.01624077671</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-72855.01624077671</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-72495.9515407767</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-73077.85854077671</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-73077.85854077671</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-73076.85854077671</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-74313.75554077671</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-74313.75554077671</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-74661.3298407767</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-144755.0022407767</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-141044.6483407767</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-141044.6483407767</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-141339.1037407767</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-141339.1037407767</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-145439.1037407767</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -3454,10 +3454,14 @@
         <v>-184951.9055407767</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="J93" t="n">
+        <v>99.09999999999999</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
@@ -3490,8 +3494,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3533,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +3572,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +3611,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +3650,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +3689,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +3728,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +3767,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +3806,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +3845,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +3884,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +3923,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +3962,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4001,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4040,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4079,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4118,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4048,11 +4154,19 @@
         <v>-204552.1306407767</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="J111" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4195,19 @@
         <v>-203128.9386407767</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="J112" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,15 +4236,19 @@
         <v>-221313.3967407767</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>98.40000000000001</v>
       </c>
       <c r="J113" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
+        <v>99.09999999999999</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4151,17 +4277,17 @@
         <v>-221313.3967407767</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>98.3</v>
       </c>
       <c r="J114" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L114" t="n">
@@ -4192,17 +4318,17 @@
         <v>-223384.6746407766</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>98.3</v>
       </c>
       <c r="J115" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L115" t="n">
@@ -4233,17 +4359,17 @@
         <v>-228954.3004407767</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>98.2</v>
       </c>
       <c r="J116" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L116" t="n">
@@ -4274,13 +4400,13 @@
         <v>-230101.4346407767</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>97.8</v>
       </c>
       <c r="J117" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4315,13 +4441,13 @@
         <v>-82141.61803888986</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>97.7</v>
       </c>
       <c r="J118" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4360,7 +4486,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4399,7 +4525,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4438,7 +4564,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4477,7 +4603,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4516,7 +4642,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4555,7 +4681,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4590,13 +4716,11 @@
         <v>-100052.5895388899</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>102</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4631,13 +4755,11 @@
         <v>-111520.9601388899</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>102</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4676,7 +4798,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -4715,7 +4837,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -4754,7 +4876,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -4793,7 +4915,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -4832,7 +4954,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -4871,7 +4993,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -4910,7 +5032,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -4945,11 +5067,13 @@
         <v>-117615.8760388899</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>98.3</v>
+      </c>
       <c r="J134" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -4984,11 +5108,13 @@
         <v>-117605.8760388899</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>98.3</v>
+      </c>
       <c r="J135" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5023,11 +5149,13 @@
         <v>-116569.3177388899</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>99.2</v>
+      </c>
       <c r="J136" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5062,11 +5190,13 @@
         <v>-117396.6587388899</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>99.40000000000001</v>
+      </c>
       <c r="J137" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5101,11 +5231,13 @@
         <v>-117396.6587388899</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>99</v>
+      </c>
       <c r="J138" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5140,11 +5272,13 @@
         <v>-117396.6587388899</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>99</v>
+      </c>
       <c r="J139" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5179,11 +5313,13 @@
         <v>-119980.7295388899</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>99</v>
+      </c>
       <c r="J140" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5218,11 +5354,13 @@
         <v>-119640.7751388899</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>98.90000000000001</v>
+      </c>
       <c r="J141" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5261,7 +5399,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5300,7 +5438,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5339,7 +5477,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5378,7 +5516,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5417,7 +5555,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5456,7 +5594,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5495,7 +5633,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5534,7 +5672,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5573,7 +5711,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -5612,7 +5750,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -5651,7 +5789,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -5690,7 +5828,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -5729,7 +5867,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -5768,7 +5906,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -5807,7 +5945,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -5846,7 +5984,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -5885,7 +6023,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -5924,7 +6062,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -5963,7 +6101,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6002,7 +6140,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6041,7 +6179,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6076,11 +6214,11 @@
         <v>-39460.38033888987</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>98.40000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6093,6 +6231,6 @@
       <c r="M163" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest ELF.xlsx
+++ b/BackTest/2019-10-30 BackTest ELF.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-25913.2650407767</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-24519.9702407767</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-24519.9702407767</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-34301.5773407767</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-34110.5676407767</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-58854.05794077671</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-59854.05794077671</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-59854.05794077671</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-58460.7631407767</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-58460.7631407767</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-70684.7631407767</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-70684.7631407767</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-70683.7631407767</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-72996.3699407767</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-59906.5783407767</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-59906.5783407767</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-59906.5783407767</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-73520.8225407767</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-72855.01624077671</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-72855.01624077671</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-72855.01624077671</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-72495.9515407767</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-73077.85854077671</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-73077.85854077671</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-73076.85854077671</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-74313.75554077671</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-74313.75554077671</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-74661.3298407767</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-144755.0022407767</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-141044.6483407767</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-141044.6483407767</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-141339.1037407767</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-141339.1037407767</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-145439.1037407767</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -3256,10 +3256,14 @@
         <v>-182757.9986407767</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J87" t="n">
+        <v>98.7</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
@@ -3292,8 +3296,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3335,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3454,14 +3470,10 @@
         <v>-184951.9055407767</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="J93" t="n">
-        <v>99.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
@@ -3494,884 +3506,740 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="C95" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="E95" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="F95" t="n">
+        <v>644.1562</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-185620.2450407767</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C96" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D96" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="E96" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1211</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-184409.2450407767</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>100</v>
+      </c>
+      <c r="C97" t="n">
+        <v>100</v>
+      </c>
+      <c r="D97" t="n">
+        <v>100</v>
+      </c>
+      <c r="E97" t="n">
+        <v>100</v>
+      </c>
+      <c r="F97" t="n">
+        <v>3836.5839</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-180572.6611407767</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
         <v>99.09999999999999</v>
       </c>
-      <c r="K94" t="inlineStr">
+      <c r="C98" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="D98" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E98" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F98" t="n">
+        <v>203.9176</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-180776.5787407767</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>100</v>
+      </c>
+      <c r="C99" t="n">
+        <v>101</v>
+      </c>
+      <c r="D99" t="n">
+        <v>101</v>
+      </c>
+      <c r="E99" t="n">
+        <v>100</v>
+      </c>
+      <c r="F99" t="n">
+        <v>449.3348</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-180327.2439407767</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>101</v>
+      </c>
+      <c r="C100" t="n">
+        <v>101</v>
+      </c>
+      <c r="D100" t="n">
+        <v>101</v>
+      </c>
+      <c r="E100" t="n">
+        <v>101</v>
+      </c>
+      <c r="F100" t="n">
+        <v>15750</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-180327.2439407767</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>101</v>
+      </c>
+      <c r="C101" t="n">
+        <v>101</v>
+      </c>
+      <c r="D101" t="n">
+        <v>101</v>
+      </c>
+      <c r="E101" t="n">
+        <v>101</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1414.997</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-180327.2439407767</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="D102" t="n">
+        <v>100</v>
+      </c>
+      <c r="E102" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F102" t="n">
+        <v>560.8896</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-180888.1335407767</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="n">
+        <v>101</v>
+      </c>
+      <c r="E103" t="n">
+        <v>101</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-180887.1335407767</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>101</v>
+      </c>
+      <c r="C104" t="n">
+        <v>101</v>
+      </c>
+      <c r="D104" t="n">
+        <v>101</v>
+      </c>
+      <c r="E104" t="n">
+        <v>101</v>
+      </c>
+      <c r="F104" t="n">
+        <v>353.2277</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-180887.1335407767</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>101</v>
+      </c>
+      <c r="C105" t="n">
+        <v>101</v>
+      </c>
+      <c r="D105" t="n">
+        <v>101</v>
+      </c>
+      <c r="E105" t="n">
+        <v>101</v>
+      </c>
+      <c r="F105" t="n">
+        <v>10</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-180887.1335407767</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>100</v>
+      </c>
+      <c r="C106" t="n">
+        <v>100</v>
+      </c>
+      <c r="D106" t="n">
+        <v>100</v>
+      </c>
+      <c r="E106" t="n">
+        <v>100</v>
+      </c>
+      <c r="F106" t="n">
+        <v>964.066</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-181851.1995407767</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>100</v>
+      </c>
+      <c r="C107" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D107" t="n">
+        <v>100</v>
+      </c>
+      <c r="E107" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2280.1589</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-184131.3584407767</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C108" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="D108" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E108" t="n">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="F108" t="n">
+        <v>395.224</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-184526.5824407767</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C109" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="D109" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E109" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F109" t="n">
+        <v>8186.2892</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-192712.8716407767</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C110" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="D110" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="E110" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="F110" t="n">
+        <v>490.0592</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-193202.9308407767</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="C111" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="D111" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="E111" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="F111" t="n">
+        <v>11349.1998</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-204552.1306407767</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="C112" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="D112" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="E112" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1423.192</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-203128.9386407767</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="C113" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="D113" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="E113" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="F113" t="n">
+        <v>18184.4581</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-221313.3967407767</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="C114" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="D114" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="E114" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="F114" t="n">
+        <v>4566.6215</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-221313.3967407767</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="C115" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="D115" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="E115" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2071.2779</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-223384.6746407766</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="C116" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="D116" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="E116" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="F116" t="n">
+        <v>5569.6258</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-228954.3004407767</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="C95" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="D95" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="E95" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="F95" t="n">
-        <v>644.1562</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-185620.2450407767</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="C96" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="D96" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="E96" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="F96" t="n">
-        <v>1211</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-184409.2450407767</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>100</v>
-      </c>
-      <c r="C97" t="n">
-        <v>100</v>
-      </c>
-      <c r="D97" t="n">
-        <v>100</v>
-      </c>
-      <c r="E97" t="n">
-        <v>100</v>
-      </c>
-      <c r="F97" t="n">
-        <v>3836.5839</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-180572.6611407767</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="C98" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="D98" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="E98" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="F98" t="n">
-        <v>203.9176</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-180776.5787407767</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>100</v>
-      </c>
-      <c r="C99" t="n">
-        <v>101</v>
-      </c>
-      <c r="D99" t="n">
-        <v>101</v>
-      </c>
-      <c r="E99" t="n">
-        <v>100</v>
-      </c>
-      <c r="F99" t="n">
-        <v>449.3348</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-180327.2439407767</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>101</v>
-      </c>
-      <c r="C100" t="n">
-        <v>101</v>
-      </c>
-      <c r="D100" t="n">
-        <v>101</v>
-      </c>
-      <c r="E100" t="n">
-        <v>101</v>
-      </c>
-      <c r="F100" t="n">
-        <v>15750</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-180327.2439407767</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>101</v>
-      </c>
-      <c r="C101" t="n">
-        <v>101</v>
-      </c>
-      <c r="D101" t="n">
-        <v>101</v>
-      </c>
-      <c r="E101" t="n">
-        <v>101</v>
-      </c>
-      <c r="F101" t="n">
-        <v>1414.997</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-180327.2439407767</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>100</v>
-      </c>
-      <c r="C102" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="D102" t="n">
-        <v>100</v>
-      </c>
-      <c r="E102" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="F102" t="n">
-        <v>560.8896</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-180888.1335407767</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>101</v>
-      </c>
-      <c r="C103" t="n">
-        <v>101</v>
-      </c>
-      <c r="D103" t="n">
-        <v>101</v>
-      </c>
-      <c r="E103" t="n">
-        <v>101</v>
-      </c>
-      <c r="F103" t="n">
-        <v>1</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-180887.1335407767</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>101</v>
-      </c>
-      <c r="C104" t="n">
-        <v>101</v>
-      </c>
-      <c r="D104" t="n">
-        <v>101</v>
-      </c>
-      <c r="E104" t="n">
-        <v>101</v>
-      </c>
-      <c r="F104" t="n">
-        <v>353.2277</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-180887.1335407767</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>101</v>
-      </c>
-      <c r="C105" t="n">
-        <v>101</v>
-      </c>
-      <c r="D105" t="n">
-        <v>101</v>
-      </c>
-      <c r="E105" t="n">
-        <v>101</v>
-      </c>
-      <c r="F105" t="n">
-        <v>10</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-180887.1335407767</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>100</v>
-      </c>
-      <c r="C106" t="n">
-        <v>100</v>
-      </c>
-      <c r="D106" t="n">
-        <v>100</v>
-      </c>
-      <c r="E106" t="n">
-        <v>100</v>
-      </c>
-      <c r="F106" t="n">
-        <v>964.066</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-181851.1995407767</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>100</v>
-      </c>
-      <c r="C107" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="D107" t="n">
-        <v>100</v>
-      </c>
-      <c r="E107" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="F107" t="n">
-        <v>2280.1589</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-184131.3584407767</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="C108" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="D108" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="E108" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="F108" t="n">
-        <v>395.224</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-184526.5824407767</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="C109" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="D109" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="E109" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="F109" t="n">
-        <v>8186.2892</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-192712.8716407767</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="C110" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="D110" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="E110" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="F110" t="n">
-        <v>490.0592</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-193202.9308407767</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="C111" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="D111" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="E111" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="F111" t="n">
-        <v>11349.1998</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-204552.1306407767</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="J111" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="C112" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="D112" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="E112" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1423.192</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-203128.9386407767</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="J112" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="C113" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="D113" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="E113" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="F113" t="n">
-        <v>18184.4581</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-221313.3967407767</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="J113" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="C114" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="D114" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="E114" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="F114" t="n">
-        <v>4566.6215</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-221313.3967407767</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="J114" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="C115" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="D115" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="E115" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="F115" t="n">
-        <v>2071.2779</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-223384.6746407766</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="J115" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="C116" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="D116" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="E116" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="F116" t="n">
-        <v>5569.6258</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-228954.3004407767</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="J116" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4405,9 +4273,7 @@
       <c r="I117" t="n">
         <v>97.8</v>
       </c>
-      <c r="J117" t="n">
-        <v>99.09999999999999</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4446,9 +4312,7 @@
       <c r="I118" t="n">
         <v>97.7</v>
       </c>
-      <c r="J118" t="n">
-        <v>99.09999999999999</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4485,9 +4349,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>99.09999999999999</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4524,9 +4386,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>99.09999999999999</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4563,9 +4423,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>99.09999999999999</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4602,9 +4460,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>99.09999999999999</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4641,9 +4497,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>99.09999999999999</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4680,9 +4534,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>99.09999999999999</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4719,9 +4571,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>99.09999999999999</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4758,9 +4608,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>99.09999999999999</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4794,20 +4642,16 @@
         <v>-111520.9601388899</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>99.09999999999999</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
@@ -4833,17 +4677,11 @@
         <v>-115740.3030388899</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4872,17 +4710,11 @@
         <v>-115740.3030388899</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4914,14 +4746,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4953,14 +4779,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4992,14 +4812,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5031,14 +4845,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5067,19 +4875,11 @@
         <v>-117615.8760388899</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="J134" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5108,19 +4908,11 @@
         <v>-117605.8760388899</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="J135" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5149,19 +4941,11 @@
         <v>-116569.3177388899</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>99.2</v>
-      </c>
-      <c r="J136" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5190,19 +4974,11 @@
         <v>-117396.6587388899</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="J137" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5231,19 +5007,11 @@
         <v>-117396.6587388899</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>99</v>
-      </c>
-      <c r="J138" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5272,19 +5040,11 @@
         <v>-117396.6587388899</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>99</v>
-      </c>
-      <c r="J139" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5313,19 +5073,11 @@
         <v>-119980.7295388899</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>99</v>
-      </c>
-      <c r="J140" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5354,19 +5106,11 @@
         <v>-119640.7751388899</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="J141" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5398,14 +5142,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5437,14 +5175,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5476,14 +5208,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5515,14 +5241,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5554,14 +5274,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5593,14 +5307,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5632,14 +5340,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5671,14 +5373,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5710,14 +5406,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5749,14 +5439,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5788,14 +5472,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5827,14 +5505,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5866,14 +5538,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5905,14 +5571,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5944,14 +5604,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5983,14 +5637,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6022,14 +5670,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6061,14 +5703,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6100,14 +5736,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6139,14 +5769,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6178,14 +5802,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6217,20 +5835,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
       <c r="M163" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest ELF.xlsx
+++ b/BackTest/2019-10-30 BackTest ELF.xlsx
@@ -451,7 +451,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>30604.2956592233</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-25913.2650407767</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-24519.9702407767</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-24519.9702407767</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-34301.5773407767</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-34110.5676407767</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-58854.05794077671</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-59854.05794077671</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -3256,14 +3256,10 @@
         <v>-182757.9986407767</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="J87" t="n">
-        <v>98.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
@@ -3296,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3335,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>98.7</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -4196,10 +4180,14 @@
         <v>-223384.6746407766</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="J115" t="n">
+        <v>98.3</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
@@ -4234,7 +4222,9 @@
       <c r="I116" t="n">
         <v>98.2</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>98.3</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -4273,7 +4263,9 @@
       <c r="I117" t="n">
         <v>97.8</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>98.3</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4312,7 +4304,9 @@
       <c r="I118" t="n">
         <v>97.7</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>98.3</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4349,7 +4343,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>98.3</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4386,7 +4382,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>98.3</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4423,7 +4421,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>98.3</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4460,7 +4460,9 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>98.3</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4497,7 +4499,9 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>98.3</v>
+      </c>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4534,7 +4538,9 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>98.3</v>
+      </c>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4571,7 +4577,9 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>98.3</v>
+      </c>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4608,7 +4616,9 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>98.3</v>
+      </c>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4642,16 +4652,20 @@
         <v>-111520.9601388899</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>98.3</v>
+      </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
       <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
@@ -4677,11 +4691,17 @@
         <v>-115740.3030388899</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4710,11 +4730,17 @@
         <v>-115740.3030388899</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4746,8 +4772,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4779,8 +4811,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4812,8 +4850,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4845,8 +4889,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4878,8 +4928,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4911,8 +4967,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4944,8 +5006,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4977,8 +5045,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5010,8 +5084,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5043,8 +5123,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5076,8 +5162,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5109,8 +5201,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5142,8 +5240,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5175,8 +5279,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5208,8 +5318,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5241,8 +5357,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5274,8 +5396,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5307,8 +5435,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5340,8 +5474,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5373,8 +5513,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5406,8 +5552,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5439,8 +5591,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5472,8 +5630,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5505,8 +5669,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5538,8 +5708,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5571,8 +5747,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5604,8 +5786,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5637,8 +5825,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5670,8 +5864,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5703,8 +5903,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5736,8 +5942,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5769,8 +5981,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5802,8 +6020,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5835,8 +6059,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-30 BackTest ELF.xlsx
+++ b/BackTest/2019-10-30 BackTest ELF.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M163"/>
+  <dimension ref="A1:L163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1635.7176</v>
       </c>
       <c r="G2" t="n">
-        <v>30604.2956592233</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>767.8786</v>
       </c>
       <c r="G3" t="n">
-        <v>30604.2956592233</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>2118.8404</v>
       </c>
       <c r="G4" t="n">
-        <v>30604.2956592233</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>2051.8689</v>
       </c>
       <c r="G5" t="n">
-        <v>30604.2956592233</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>919</v>
       </c>
       <c r="G6" t="n">
-        <v>30604.2956592233</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>2763.4209</v>
       </c>
       <c r="G7" t="n">
-        <v>30604.2956592233</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>236.5791</v>
       </c>
       <c r="G8" t="n">
-        <v>30604.2956592233</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>10434.8286</v>
       </c>
       <c r="G9" t="n">
-        <v>30604.2956592233</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>56517.5607</v>
       </c>
       <c r="G10" t="n">
-        <v>-25913.2650407767</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>1393.2948</v>
       </c>
       <c r="G11" t="n">
-        <v>-24519.9702407767</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>2183.4276</v>
       </c>
       <c r="G12" t="n">
-        <v>-24519.9702407767</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>9781.607099999999</v>
       </c>
       <c r="G13" t="n">
-        <v>-34301.5773407767</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>191.0097</v>
       </c>
       <c r="G14" t="n">
-        <v>-34110.5676407767</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>24743.4903</v>
       </c>
       <c r="G15" t="n">
-        <v>-58854.05794077671</v>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>1000</v>
       </c>
       <c r="G16" t="n">
-        <v>-59854.05794077671</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>3963.0093</v>
       </c>
       <c r="G17" t="n">
-        <v>-59854.05794077671</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>1393.2948</v>
       </c>
       <c r="G18" t="n">
-        <v>-58460.7631407767</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>5673.0385</v>
       </c>
       <c r="G19" t="n">
-        <v>-58460.7631407767</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>12224</v>
       </c>
       <c r="G20" t="n">
-        <v>-70684.7631407767</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>1702</v>
       </c>
       <c r="G21" t="n">
-        <v>-70684.7631407767</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>-70683.7631407767</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>2312.6068</v>
       </c>
       <c r="G23" t="n">
-        <v>-72996.3699407767</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>13089.7916</v>
       </c>
       <c r="G24" t="n">
-        <v>-59906.5783407767</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>1421.4606</v>
       </c>
       <c r="G25" t="n">
-        <v>-59906.5783407767</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>2053.6708</v>
       </c>
       <c r="G26" t="n">
-        <v>-59906.5783407767</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>13614.2442</v>
       </c>
       <c r="G27" t="n">
-        <v>-73520.8225407767</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>665.8063</v>
       </c>
       <c r="G28" t="n">
-        <v>-72855.01624077671</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>2334.1936</v>
       </c>
       <c r="G29" t="n">
-        <v>-72855.01624077671</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>853.2412</v>
       </c>
       <c r="G30" t="n">
-        <v>-72855.01624077671</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>359.0647</v>
       </c>
       <c r="G31" t="n">
-        <v>-72495.9515407767</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>581.907</v>
       </c>
       <c r="G32" t="n">
-        <v>-73077.85854077671</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>847.4226</v>
       </c>
       <c r="G33" t="n">
-        <v>-73077.85854077671</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>-73076.85854077671</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>1236.897</v>
       </c>
       <c r="G35" t="n">
-        <v>-74313.75554077671</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>618.4509</v>
       </c>
       <c r="G36" t="n">
-        <v>-74313.75554077671</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>-74312.75554077671</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>348.5743</v>
       </c>
       <c r="G38" t="n">
-        <v>-74661.3298407767</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>70093.6724</v>
       </c>
       <c r="G39" t="n">
-        <v>-144755.0022407767</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>3710.3539</v>
       </c>
       <c r="G40" t="n">
-        <v>-141044.6483407767</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>4574.9228</v>
       </c>
       <c r="G41" t="n">
-        <v>-141044.6483407767</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>2590.158</v>
       </c>
       <c r="G42" t="n">
-        <v>-141044.6483407767</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>9968.531499999999</v>
       </c>
       <c r="G43" t="n">
-        <v>-141044.6483407767</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>-141043.6483407767</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>295.4554</v>
       </c>
       <c r="G45" t="n">
-        <v>-141339.1037407767</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>1034.5956</v>
       </c>
       <c r="G46" t="n">
-        <v>-141339.1037407767</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>8848.35</v>
       </c>
       <c r="G47" t="n">
-        <v>-141339.1037407767</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>6540</v>
       </c>
       <c r="G48" t="n">
-        <v>-141339.1037407767</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>2102.3217</v>
       </c>
       <c r="G49" t="n">
-        <v>-141339.1037407767</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>4100</v>
       </c>
       <c r="G50" t="n">
-        <v>-145439.1037407767</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>445.5313</v>
       </c>
       <c r="G51" t="n">
-        <v>-145439.1037407767</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>2494.5685</v>
       </c>
       <c r="G52" t="n">
-        <v>-145439.1037407767</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>4705.8045</v>
       </c>
       <c r="G53" t="n">
-        <v>-145439.1037407767</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>23364.9751</v>
       </c>
       <c r="G54" t="n">
-        <v>-145439.1037407767</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>2341.6973</v>
       </c>
       <c r="G55" t="n">
-        <v>-147780.8010407767</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>599.9131</v>
       </c>
       <c r="G56" t="n">
-        <v>-148380.7141407767</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>2587.6584</v>
       </c>
       <c r="G57" t="n">
-        <v>-145793.0557407767</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>1002.004</v>
       </c>
       <c r="G58" t="n">
-        <v>-146795.0597407767</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>956.6968000000001</v>
       </c>
       <c r="G59" t="n">
-        <v>-147751.7565407767</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>473.037</v>
       </c>
       <c r="G60" t="n">
-        <v>-148224.7935407767</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>13750</v>
       </c>
       <c r="G61" t="n">
-        <v>-161974.7935407767</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>475.8118</v>
       </c>
       <c r="G62" t="n">
-        <v>-161498.9817407767</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>4044.9999</v>
       </c>
       <c r="G63" t="n">
-        <v>-165543.9816407767</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>-165533.9816407767</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>4559.9112</v>
       </c>
       <c r="G65" t="n">
-        <v>-170093.8928407767</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>29.4117</v>
       </c>
       <c r="G66" t="n">
-        <v>-170093.8928407767</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>1176.7347</v>
       </c>
       <c r="G67" t="n">
-        <v>-171270.6275407767</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>0.0001</v>
       </c>
       <c r="G68" t="n">
-        <v>-171270.6275407767</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>99</v>
       </c>
       <c r="G69" t="n">
-        <v>-171270.6275407767</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>4400</v>
       </c>
       <c r="G70" t="n">
-        <v>-175670.6275407767</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>2000</v>
       </c>
       <c r="G71" t="n">
-        <v>-177670.6275407767</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>386.9239</v>
       </c>
       <c r="G72" t="n">
-        <v>-177670.6275407767</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>3150</v>
       </c>
       <c r="G73" t="n">
-        <v>-180820.6275407767</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>10.957</v>
       </c>
       <c r="G74" t="n">
-        <v>-180820.6275407767</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>1490.4263</v>
       </c>
       <c r="G75" t="n">
-        <v>-180820.6275407767</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,19 @@
         <v>1341.3837</v>
       </c>
       <c r="G76" t="n">
-        <v>-180820.6275407767</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>98.5</v>
+      </c>
+      <c r="I76" t="n">
+        <v>98.5</v>
+      </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2697,23 @@
         <v>62.5728</v>
       </c>
       <c r="G77" t="n">
-        <v>-180820.6275407767</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>98.5</v>
+      </c>
+      <c r="I77" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2735,21 @@
         <v>541.0495</v>
       </c>
       <c r="G78" t="n">
-        <v>-180820.6275407767</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2771,19 @@
         <v>9186.981</v>
       </c>
       <c r="G79" t="n">
-        <v>-180820.6275407767</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>98.5</v>
+      </c>
+      <c r="I79" t="n">
+        <v>98.5</v>
+      </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2805,21 @@
         <v>4300</v>
       </c>
       <c r="G80" t="n">
-        <v>-185120.6275407767</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2841,23 @@
         <v>150.8737</v>
       </c>
       <c r="G81" t="n">
-        <v>-184969.7538407767</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>98.3</v>
+      </c>
+      <c r="I81" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2879,19 @@
         <v>1000</v>
       </c>
       <c r="G82" t="n">
-        <v>-183969.7538407767</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>98.90000000000001</v>
+      </c>
+      <c r="I82" t="n">
+        <v>98.90000000000001</v>
+      </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2913,21 @@
         <v>100</v>
       </c>
       <c r="G83" t="n">
-        <v>-184069.7538407767</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2949,21 @@
         <v>1000</v>
       </c>
       <c r="G84" t="n">
-        <v>-183069.7538407767</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2985,15 @@
         <v>100</v>
       </c>
       <c r="G85" t="n">
-        <v>-183169.7538407767</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3015,19 @@
         <v>1016.2816</v>
       </c>
       <c r="G86" t="n">
-        <v>-183169.7538407767</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>98.7</v>
+      </c>
+      <c r="I86" t="n">
+        <v>98.7</v>
+      </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3049,21 @@
         <v>411.7552</v>
       </c>
       <c r="G87" t="n">
-        <v>-182757.9986407767</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3085,21 @@
         <v>3119.5017</v>
       </c>
       <c r="G88" t="n">
-        <v>-185877.5003407767</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>98.7</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3121,15 @@
         <v>944.9198</v>
       </c>
       <c r="G89" t="n">
-        <v>-184932.5805407767</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3151,15 @@
         <v>19.1156</v>
       </c>
       <c r="G90" t="n">
-        <v>-184932.5805407767</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3181,15 @@
         <v>500.3186</v>
       </c>
       <c r="G91" t="n">
-        <v>-185432.8991407767</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3211,15 @@
         <v>485.7831</v>
       </c>
       <c r="G92" t="n">
-        <v>-185918.6822407767</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3241,15 @@
         <v>966.7767</v>
       </c>
       <c r="G93" t="n">
-        <v>-184951.9055407767</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3271,15 @@
         <v>1312.4957</v>
       </c>
       <c r="G94" t="n">
-        <v>-186264.4012407767</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3301,15 @@
         <v>644.1562</v>
       </c>
       <c r="G95" t="n">
-        <v>-185620.2450407767</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3331,15 @@
         <v>1211</v>
       </c>
       <c r="G96" t="n">
-        <v>-184409.2450407767</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3361,15 @@
         <v>3836.5839</v>
       </c>
       <c r="G97" t="n">
-        <v>-180572.6611407767</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3391,15 @@
         <v>203.9176</v>
       </c>
       <c r="G98" t="n">
-        <v>-180776.5787407767</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3421,15 @@
         <v>449.3348</v>
       </c>
       <c r="G99" t="n">
-        <v>-180327.2439407767</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3451,15 @@
         <v>15750</v>
       </c>
       <c r="G100" t="n">
-        <v>-180327.2439407767</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3481,15 @@
         <v>1414.997</v>
       </c>
       <c r="G101" t="n">
-        <v>-180327.2439407767</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3511,15 @@
         <v>560.8896</v>
       </c>
       <c r="G102" t="n">
-        <v>-180888.1335407767</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3541,15 @@
         <v>1</v>
       </c>
       <c r="G103" t="n">
-        <v>-180887.1335407767</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3571,15 @@
         <v>353.2277</v>
       </c>
       <c r="G104" t="n">
-        <v>-180887.1335407767</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3601,15 @@
         <v>10</v>
       </c>
       <c r="G105" t="n">
-        <v>-180887.1335407767</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3631,15 @@
         <v>964.066</v>
       </c>
       <c r="G106" t="n">
-        <v>-181851.1995407767</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3661,15 @@
         <v>2280.1589</v>
       </c>
       <c r="G107" t="n">
-        <v>-184131.3584407767</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3691,15 @@
         <v>395.224</v>
       </c>
       <c r="G108" t="n">
-        <v>-184526.5824407767</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3721,15 @@
         <v>8186.2892</v>
       </c>
       <c r="G109" t="n">
-        <v>-192712.8716407767</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3751,15 @@
         <v>490.0592</v>
       </c>
       <c r="G110" t="n">
-        <v>-193202.9308407767</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3781,15 @@
         <v>11349.1998</v>
       </c>
       <c r="G111" t="n">
-        <v>-204552.1306407767</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3811,15 @@
         <v>1423.192</v>
       </c>
       <c r="G112" t="n">
-        <v>-203128.9386407767</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3841,15 @@
         <v>18184.4581</v>
       </c>
       <c r="G113" t="n">
-        <v>-221313.3967407767</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3871,15 @@
         <v>4566.6215</v>
       </c>
       <c r="G114" t="n">
-        <v>-221313.3967407767</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,22 +3901,15 @@
         <v>2071.2779</v>
       </c>
       <c r="G115" t="n">
-        <v>-223384.6746407766</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="J115" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4214,26 +3931,15 @@
         <v>5569.6258</v>
       </c>
       <c r="G116" t="n">
-        <v>-228954.3004407767</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>98.2</v>
-      </c>
-      <c r="J116" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4255,26 +3961,15 @@
         <v>1147.1342</v>
       </c>
       <c r="G117" t="n">
-        <v>-230101.4346407767</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>97.8</v>
-      </c>
-      <c r="J117" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4296,26 +3991,15 @@
         <v>147959.8166018868</v>
       </c>
       <c r="G118" t="n">
-        <v>-82141.61803888986</v>
-      </c>
-      <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>97.7</v>
-      </c>
-      <c r="J118" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4337,24 +4021,15 @@
         <v>463.9672</v>
       </c>
       <c r="G119" t="n">
-        <v>-81677.65083888987</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4376,24 +4051,15 @@
         <v>11704.1263</v>
       </c>
       <c r="G120" t="n">
-        <v>-93381.77713888987</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4415,24 +4081,15 @@
         <v>368.1988</v>
       </c>
       <c r="G121" t="n">
-        <v>-93381.77713888987</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4454,24 +4111,15 @@
         <v>5900</v>
       </c>
       <c r="G122" t="n">
-        <v>-93381.77713888987</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4493,24 +4141,15 @@
         <v>774.3441</v>
       </c>
       <c r="G123" t="n">
-        <v>-93381.77713888987</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4532,24 +4171,15 @@
         <v>6670.8124</v>
       </c>
       <c r="G124" t="n">
-        <v>-100052.5895388899</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4571,24 +4201,15 @@
         <v>391.7612</v>
       </c>
       <c r="G125" t="n">
-        <v>-100052.5895388899</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4610,24 +4231,15 @@
         <v>11468.3706</v>
       </c>
       <c r="G126" t="n">
-        <v>-111520.9601388899</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4649,24 +4261,15 @@
         <v>3718.8652</v>
       </c>
       <c r="G127" t="n">
-        <v>-111520.9601388899</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4688,24 +4291,15 @@
         <v>4219.3429</v>
       </c>
       <c r="G128" t="n">
-        <v>-115740.3030388899</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4727,24 +4321,15 @@
         <v>108.256</v>
       </c>
       <c r="G129" t="n">
-        <v>-115740.3030388899</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4766,24 +4351,15 @@
         <v>458.7407</v>
       </c>
       <c r="G130" t="n">
-        <v>-116199.0437388899</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4805,24 +4381,15 @@
         <v>309.9174</v>
       </c>
       <c r="G131" t="n">
-        <v>-116508.9611388899</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4844,24 +4411,15 @@
         <v>1297.4471</v>
       </c>
       <c r="G132" t="n">
-        <v>-117806.4082388899</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4883,24 +4441,15 @@
         <v>190.5322</v>
       </c>
       <c r="G133" t="n">
-        <v>-117615.8760388899</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4922,24 +4471,15 @@
         <v>959.5974</v>
       </c>
       <c r="G134" t="n">
-        <v>-117615.8760388899</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4961,24 +4501,15 @@
         <v>10</v>
       </c>
       <c r="G135" t="n">
-        <v>-117605.8760388899</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5000,24 +4531,15 @@
         <v>1036.5583</v>
       </c>
       <c r="G136" t="n">
-        <v>-116569.3177388899</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5039,24 +4561,15 @@
         <v>827.341</v>
       </c>
       <c r="G137" t="n">
-        <v>-117396.6587388899</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5078,24 +4591,15 @@
         <v>1010</v>
       </c>
       <c r="G138" t="n">
-        <v>-117396.6587388899</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5117,24 +4621,15 @@
         <v>1000</v>
       </c>
       <c r="G139" t="n">
-        <v>-117396.6587388899</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5156,24 +4651,15 @@
         <v>2584.0708</v>
       </c>
       <c r="G140" t="n">
-        <v>-119980.7295388899</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5195,24 +4681,15 @@
         <v>339.9544</v>
       </c>
       <c r="G141" t="n">
-        <v>-119640.7751388899</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5234,24 +4711,15 @@
         <v>714</v>
       </c>
       <c r="G142" t="n">
-        <v>-119640.7751388899</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5273,24 +4741,15 @@
         <v>353.5605</v>
       </c>
       <c r="G143" t="n">
-        <v>-119640.7751388899</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5312,24 +4771,15 @@
         <v>1698.0946</v>
       </c>
       <c r="G144" t="n">
-        <v>-117942.6805388899</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5351,24 +4801,15 @@
         <v>5395.2933</v>
       </c>
       <c r="G145" t="n">
-        <v>-117942.6805388899</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5390,24 +4831,15 @@
         <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>-117941.6805388899</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5429,24 +4861,15 @@
         <v>8074</v>
       </c>
       <c r="G147" t="n">
-        <v>-117941.6805388899</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5468,24 +4891,15 @@
         <v>251.924</v>
       </c>
       <c r="G148" t="n">
-        <v>-118193.6045388899</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5507,24 +4921,15 @@
         <v>1</v>
       </c>
       <c r="G149" t="n">
-        <v>-118192.6045388899</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5546,24 +4951,15 @@
         <v>48.076</v>
       </c>
       <c r="G150" t="n">
-        <v>-118240.6805388899</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5585,24 +4981,15 @@
         <v>1</v>
       </c>
       <c r="G151" t="n">
-        <v>-118239.6805388899</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5624,24 +5011,15 @@
         <v>858.0895</v>
       </c>
       <c r="G152" t="n">
-        <v>-119097.7700388899</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5663,24 +5041,15 @@
         <v>3451</v>
       </c>
       <c r="G153" t="n">
-        <v>-115646.7700388899</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5702,24 +5071,15 @@
         <v>471</v>
       </c>
       <c r="G154" t="n">
-        <v>-115175.7700388899</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5741,24 +5101,15 @@
         <v>455.0639</v>
       </c>
       <c r="G155" t="n">
-        <v>-115630.8339388899</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5780,24 +5131,15 @@
         <v>393.0256</v>
       </c>
       <c r="G156" t="n">
-        <v>-115237.8083388899</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5819,24 +5161,15 @@
         <v>4488.234</v>
       </c>
       <c r="G157" t="n">
-        <v>-115237.8083388899</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5858,24 +5191,15 @@
         <v>1</v>
       </c>
       <c r="G158" t="n">
-        <v>-115236.8083388899</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5897,24 +5221,15 @@
         <v>5900</v>
       </c>
       <c r="G159" t="n">
-        <v>-109336.8083388899</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5936,24 +5251,15 @@
         <v>17452.485</v>
       </c>
       <c r="G160" t="n">
-        <v>-91884.32333888987</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5975,24 +5281,15 @@
         <v>52667.4471</v>
       </c>
       <c r="G161" t="n">
-        <v>-39216.87623888987</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6014,24 +5311,15 @@
         <v>15732.8881</v>
       </c>
       <c r="G162" t="n">
-        <v>-39216.87623888987</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6053,24 +5341,15 @@
         <v>243.5041</v>
       </c>
       <c r="G163" t="n">
-        <v>-39460.38033888987</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
